--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.714</v>
+        <v>3.745</v>
       </c>
       <c r="C2" t="n">
-        <v>3.714</v>
+        <v>3.745</v>
       </c>
       <c r="D2" t="n">
-        <v>3.714</v>
+        <v>3.745</v>
       </c>
       <c r="E2" t="n">
-        <v>3.714</v>
+        <v>3.745</v>
       </c>
       <c r="F2" t="n">
-        <v>22333.3895</v>
+        <v>1138.4143</v>
       </c>
       <c r="G2" t="n">
-        <v>3.848016666666668</v>
+        <v>3.850483333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>3.714</v>
       </c>
       <c r="F3" t="n">
-        <v>38130.4066</v>
+        <v>22333.3895</v>
       </c>
       <c r="G3" t="n">
-        <v>3.845550000000002</v>
+        <v>3.848016666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>3.714</v>
       </c>
       <c r="F4" t="n">
-        <v>74759.87119999999</v>
+        <v>38130.4066</v>
       </c>
       <c r="G4" t="n">
-        <v>3.843083333333335</v>
+        <v>3.845550000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,19 +550,23 @@
         <v>3.714</v>
       </c>
       <c r="F5" t="n">
-        <v>185856.3591</v>
+        <v>74759.87119999999</v>
       </c>
       <c r="G5" t="n">
-        <v>3.840616666666669</v>
+        <v>3.843083333333335</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.714</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -573,22 +577,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.745</v>
+        <v>3.714</v>
       </c>
       <c r="C6" t="n">
-        <v>3.745</v>
+        <v>3.714</v>
       </c>
       <c r="D6" t="n">
-        <v>3.745</v>
+        <v>3.714</v>
       </c>
       <c r="E6" t="n">
-        <v>3.745</v>
+        <v>3.714</v>
       </c>
       <c r="F6" t="n">
-        <v>12393.8724</v>
+        <v>185856.3591</v>
       </c>
       <c r="G6" t="n">
-        <v>3.837700000000003</v>
+        <v>3.840616666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +601,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.744</v>
+        <v>3.745</v>
       </c>
       <c r="C7" t="n">
-        <v>3.744</v>
+        <v>3.745</v>
       </c>
       <c r="D7" t="n">
-        <v>3.744</v>
+        <v>3.745</v>
       </c>
       <c r="E7" t="n">
-        <v>3.744</v>
+        <v>3.745</v>
       </c>
       <c r="F7" t="n">
-        <v>39954.9044</v>
+        <v>12393.8724</v>
       </c>
       <c r="G7" t="n">
-        <v>3.834616666666669</v>
+        <v>3.837700000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,8 +642,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,10 +671,10 @@
         <v>3.744</v>
       </c>
       <c r="F8" t="n">
-        <v>266428.0191</v>
+        <v>39954.9044</v>
       </c>
       <c r="G8" t="n">
-        <v>3.831416666666669</v>
+        <v>3.834616666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +706,10 @@
         <v>3.744</v>
       </c>
       <c r="F9" t="n">
-        <v>13454.6113</v>
+        <v>266428.0191</v>
       </c>
       <c r="G9" t="n">
-        <v>3.829450000000002</v>
+        <v>3.831416666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,35 +729,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.76</v>
+        <v>3.744</v>
       </c>
       <c r="C10" t="n">
-        <v>3.76</v>
+        <v>3.744</v>
       </c>
       <c r="D10" t="n">
-        <v>3.76</v>
+        <v>3.744</v>
       </c>
       <c r="E10" t="n">
-        <v>3.76</v>
+        <v>3.744</v>
       </c>
       <c r="F10" t="n">
-        <v>13343.617021276</v>
+        <v>13454.6113</v>
       </c>
       <c r="G10" t="n">
-        <v>3.826516666666669</v>
+        <v>3.829450000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.744</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -752,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.717</v>
+        <v>3.76</v>
       </c>
       <c r="C11" t="n">
-        <v>3.718</v>
+        <v>3.76</v>
       </c>
       <c r="D11" t="n">
-        <v>3.718</v>
+        <v>3.76</v>
       </c>
       <c r="E11" t="n">
-        <v>3.717</v>
+        <v>3.76</v>
       </c>
       <c r="F11" t="n">
-        <v>642827.7775</v>
+        <v>13343.617021276</v>
       </c>
       <c r="G11" t="n">
-        <v>3.823316666666669</v>
+        <v>3.826516666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -776,14 +788,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -796,37 +802,29 @@
         <v>3.717</v>
       </c>
       <c r="C12" t="n">
-        <v>3.717</v>
+        <v>3.718</v>
       </c>
       <c r="D12" t="n">
-        <v>3.717</v>
+        <v>3.718</v>
       </c>
       <c r="E12" t="n">
         <v>3.717</v>
       </c>
       <c r="F12" t="n">
-        <v>130739.6936</v>
+        <v>642827.7775</v>
       </c>
       <c r="G12" t="n">
-        <v>3.820266666666669</v>
+        <v>3.823316666666669</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.718</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.716</v>
+        <v>3.717</v>
       </c>
       <c r="C13" t="n">
-        <v>3.716</v>
+        <v>3.717</v>
       </c>
       <c r="D13" t="n">
-        <v>3.716</v>
+        <v>3.717</v>
       </c>
       <c r="E13" t="n">
-        <v>3.716</v>
+        <v>3.717</v>
       </c>
       <c r="F13" t="n">
-        <v>85539.5104</v>
+        <v>130739.6936</v>
       </c>
       <c r="G13" t="n">
-        <v>3.817033333333335</v>
+        <v>3.820266666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -860,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -889,10 +881,10 @@
         <v>3.716</v>
       </c>
       <c r="F14" t="n">
-        <v>56012.404</v>
+        <v>85539.5104</v>
       </c>
       <c r="G14" t="n">
-        <v>3.813833333333336</v>
+        <v>3.817033333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -901,14 +893,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.747</v>
+        <v>3.716</v>
       </c>
       <c r="C15" t="n">
-        <v>3.747</v>
+        <v>3.716</v>
       </c>
       <c r="D15" t="n">
-        <v>3.747</v>
+        <v>3.716</v>
       </c>
       <c r="E15" t="n">
-        <v>3.747</v>
+        <v>3.716</v>
       </c>
       <c r="F15" t="n">
-        <v>113351.4132</v>
+        <v>56012.404</v>
       </c>
       <c r="G15" t="n">
-        <v>3.81191666666667</v>
+        <v>3.813833333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,14 +928,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -962,19 +942,19 @@
         <v>3.747</v>
       </c>
       <c r="C16" t="n">
-        <v>3.787</v>
+        <v>3.747</v>
       </c>
       <c r="D16" t="n">
-        <v>3.797</v>
+        <v>3.747</v>
       </c>
       <c r="E16" t="n">
         <v>3.747</v>
       </c>
       <c r="F16" t="n">
-        <v>568970.3567</v>
+        <v>113351.4132</v>
       </c>
       <c r="G16" t="n">
-        <v>3.81066666666667</v>
+        <v>3.81191666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -983,14 +963,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1000,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.757</v>
+        <v>3.747</v>
       </c>
       <c r="C17" t="n">
-        <v>3.757</v>
+        <v>3.787</v>
       </c>
       <c r="D17" t="n">
-        <v>3.757</v>
+        <v>3.797</v>
       </c>
       <c r="E17" t="n">
-        <v>3.757</v>
+        <v>3.747</v>
       </c>
       <c r="F17" t="n">
-        <v>2216.6494</v>
+        <v>568970.3567</v>
       </c>
       <c r="G17" t="n">
-        <v>3.80891666666667</v>
+        <v>3.81066666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1024,14 +998,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.787</v>
+        <v>3.757</v>
       </c>
       <c r="C18" t="n">
-        <v>3.848</v>
+        <v>3.757</v>
       </c>
       <c r="D18" t="n">
-        <v>3.848</v>
+        <v>3.757</v>
       </c>
       <c r="E18" t="n">
-        <v>3.787</v>
+        <v>3.757</v>
       </c>
       <c r="F18" t="n">
-        <v>266479.315213747</v>
+        <v>2216.6494</v>
       </c>
       <c r="G18" t="n">
-        <v>3.808683333333337</v>
+        <v>3.80891666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1065,14 +1033,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1082,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.75</v>
+        <v>3.787</v>
       </c>
       <c r="C19" t="n">
-        <v>3.75</v>
+        <v>3.848</v>
       </c>
       <c r="D19" t="n">
-        <v>3.75</v>
+        <v>3.848</v>
       </c>
       <c r="E19" t="n">
-        <v>3.75</v>
+        <v>3.787</v>
       </c>
       <c r="F19" t="n">
-        <v>134</v>
+        <v>266479.315213747</v>
       </c>
       <c r="G19" t="n">
-        <v>3.806850000000003</v>
+        <v>3.808683333333337</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1106,14 +1068,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1123,19 +1079,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="C20" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="D20" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="E20" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="F20" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" t="n">
         <v>3.806850000000003</v>
@@ -1147,14 +1103,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="C21" t="n">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="D21" t="n">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="E21" t="n">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="F21" t="n">
-        <v>329.1205</v>
+        <v>131</v>
       </c>
       <c r="G21" t="n">
-        <v>3.805650000000003</v>
+        <v>3.806850000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1188,14 +1138,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1205,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="C22" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="D22" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="E22" t="n">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="F22" t="n">
-        <v>131</v>
+        <v>329.1205</v>
       </c>
       <c r="G22" t="n">
-        <v>3.806150000000003</v>
+        <v>3.805650000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1229,14 +1173,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1249,19 +1187,19 @@
         <v>3.83</v>
       </c>
       <c r="C23" t="n">
-        <v>3.851</v>
+        <v>3.83</v>
       </c>
       <c r="D23" t="n">
-        <v>3.851</v>
+        <v>3.83</v>
       </c>
       <c r="E23" t="n">
         <v>3.83</v>
       </c>
       <c r="F23" t="n">
-        <v>312429.7723</v>
+        <v>131</v>
       </c>
       <c r="G23" t="n">
-        <v>3.807000000000003</v>
+        <v>3.806150000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1270,14 +1208,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1287,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.86</v>
+        <v>3.83</v>
       </c>
       <c r="C24" t="n">
-        <v>3.9</v>
+        <v>3.851</v>
       </c>
       <c r="D24" t="n">
-        <v>3.9</v>
+        <v>3.851</v>
       </c>
       <c r="E24" t="n">
-        <v>3.86</v>
+        <v>3.83</v>
       </c>
       <c r="F24" t="n">
-        <v>2669.827287179</v>
+        <v>312429.7723</v>
       </c>
       <c r="G24" t="n">
-        <v>3.808650000000003</v>
+        <v>3.807000000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1311,14 +1243,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1328,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="C25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E25" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="F25" t="n">
-        <v>12393.8724</v>
+        <v>2669.827287179</v>
       </c>
       <c r="G25" t="n">
-        <v>3.809483333333337</v>
+        <v>3.808650000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1352,14 +1278,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1369,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="D26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="E26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="F26" t="n">
-        <v>129</v>
+        <v>12393.8724</v>
       </c>
       <c r="G26" t="n">
-        <v>3.81031666666667</v>
+        <v>3.809483333333337</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1393,14 +1313,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="C27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="E27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="F27" t="n">
-        <v>26520.8841</v>
+        <v>129</v>
       </c>
       <c r="G27" t="n">
-        <v>3.811150000000003</v>
+        <v>3.81031666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1434,14 +1348,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1451,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="C28" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="D28" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="E28" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="F28" t="n">
-        <v>41335.2163</v>
+        <v>26520.8841</v>
       </c>
       <c r="G28" t="n">
-        <v>3.810983333333337</v>
+        <v>3.811150000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1475,14 +1383,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1492,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.889</v>
+        <v>3.84</v>
       </c>
       <c r="C29" t="n">
-        <v>3.889</v>
+        <v>3.84</v>
       </c>
       <c r="D29" t="n">
-        <v>3.889</v>
+        <v>3.84</v>
       </c>
       <c r="E29" t="n">
-        <v>3.889</v>
+        <v>3.84</v>
       </c>
       <c r="F29" t="n">
-        <v>44235.0154</v>
+        <v>41335.2163</v>
       </c>
       <c r="G29" t="n">
-        <v>3.811633333333337</v>
+        <v>3.810983333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1516,14 +1418,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1536,19 +1432,19 @@
         <v>3.889</v>
       </c>
       <c r="C30" t="n">
-        <v>3.899</v>
+        <v>3.889</v>
       </c>
       <c r="D30" t="n">
-        <v>3.899</v>
+        <v>3.889</v>
       </c>
       <c r="E30" t="n">
         <v>3.889</v>
       </c>
       <c r="F30" t="n">
-        <v>62700.263</v>
+        <v>44235.0154</v>
       </c>
       <c r="G30" t="n">
-        <v>3.813283333333337</v>
+        <v>3.811633333333337</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1557,14 +1453,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1586,10 +1476,10 @@
         <v>3.889</v>
       </c>
       <c r="F31" t="n">
-        <v>111000</v>
+        <v>62700.263</v>
       </c>
       <c r="G31" t="n">
-        <v>3.814833333333337</v>
+        <v>3.813283333333337</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1598,14 +1488,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1618,19 +1502,19 @@
         <v>3.889</v>
       </c>
       <c r="C32" t="n">
-        <v>3.889</v>
+        <v>3.899</v>
       </c>
       <c r="D32" t="n">
-        <v>3.889</v>
+        <v>3.899</v>
       </c>
       <c r="E32" t="n">
         <v>3.889</v>
       </c>
       <c r="F32" t="n">
-        <v>9730</v>
+        <v>111000</v>
       </c>
       <c r="G32" t="n">
-        <v>3.81621666666667</v>
+        <v>3.814833333333337</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1639,14 +1523,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1656,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.91</v>
+        <v>3.889</v>
       </c>
       <c r="C33" t="n">
-        <v>3.939</v>
+        <v>3.889</v>
       </c>
       <c r="D33" t="n">
-        <v>3.939</v>
+        <v>3.889</v>
       </c>
       <c r="E33" t="n">
-        <v>3.91</v>
+        <v>3.889</v>
       </c>
       <c r="F33" t="n">
-        <v>20186.7485</v>
+        <v>9730</v>
       </c>
       <c r="G33" t="n">
-        <v>3.817700000000003</v>
+        <v>3.81621666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1680,14 +1558,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1697,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="C34" t="n">
         <v>3.939</v>
       </c>
-      <c r="C34" t="n">
-        <v>3.94</v>
-      </c>
       <c r="D34" t="n">
-        <v>3.94</v>
+        <v>3.939</v>
       </c>
       <c r="E34" t="n">
-        <v>3.939</v>
+        <v>3.91</v>
       </c>
       <c r="F34" t="n">
-        <v>101004.0003</v>
+        <v>20186.7485</v>
       </c>
       <c r="G34" t="n">
-        <v>3.819200000000003</v>
+        <v>3.817700000000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1721,14 +1593,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1738,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.94</v>
+        <v>3.939</v>
       </c>
       <c r="C35" t="n">
         <v>3.94</v>
@@ -1747,13 +1613,13 @@
         <v>3.94</v>
       </c>
       <c r="E35" t="n">
-        <v>3.94</v>
+        <v>3.939</v>
       </c>
       <c r="F35" t="n">
-        <v>100000</v>
+        <v>101004.0003</v>
       </c>
       <c r="G35" t="n">
-        <v>3.819850000000003</v>
+        <v>3.819200000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1762,14 +1628,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1791,10 +1651,10 @@
         <v>3.94</v>
       </c>
       <c r="F36" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G36" t="n">
-        <v>3.819016666666669</v>
+        <v>3.819850000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1803,14 +1663,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1823,19 +1677,19 @@
         <v>3.94</v>
       </c>
       <c r="C37" t="n">
-        <v>4.018</v>
+        <v>3.94</v>
       </c>
       <c r="D37" t="n">
-        <v>4.018</v>
+        <v>3.94</v>
       </c>
       <c r="E37" t="n">
         <v>3.94</v>
       </c>
       <c r="F37" t="n">
-        <v>34230.2967</v>
+        <v>50000</v>
       </c>
       <c r="G37" t="n">
-        <v>3.819483333333336</v>
+        <v>3.819016666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1844,14 +1698,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1861,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="C38" t="n">
         <v>4.018</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.021</v>
-      </c>
       <c r="D38" t="n">
-        <v>4.021</v>
+        <v>4.018</v>
       </c>
       <c r="E38" t="n">
-        <v>4.018</v>
+        <v>3.94</v>
       </c>
       <c r="F38" t="n">
-        <v>33934.9614</v>
+        <v>34230.2967</v>
       </c>
       <c r="G38" t="n">
-        <v>3.819416666666669</v>
+        <v>3.819483333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1885,14 +1733,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1902,7 +1744,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.02</v>
+        <v>4.018</v>
       </c>
       <c r="C39" t="n">
         <v>4.021</v>
@@ -1911,13 +1753,13 @@
         <v>4.021</v>
       </c>
       <c r="E39" t="n">
-        <v>4.02</v>
+        <v>4.018</v>
       </c>
       <c r="F39" t="n">
-        <v>397523.6848</v>
+        <v>33934.9614</v>
       </c>
       <c r="G39" t="n">
-        <v>3.820300000000002</v>
+        <v>3.819416666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1926,16 +1768,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>1.068985042735043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1943,28 +1779,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="C40" t="n">
-        <v>3.97</v>
+        <v>4.021</v>
       </c>
       <c r="D40" t="n">
-        <v>3.97</v>
+        <v>4.021</v>
       </c>
       <c r="E40" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="F40" t="n">
-        <v>192717.617</v>
+        <v>397523.6848</v>
       </c>
       <c r="G40" t="n">
-        <v>3.819633333333336</v>
+        <v>3.820300000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1978,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="C41" t="n">
-        <v>3.9</v>
+        <v>3.97</v>
       </c>
       <c r="D41" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="E41" t="n">
-        <v>3.9</v>
+        <v>3.97</v>
       </c>
       <c r="F41" t="n">
-        <v>341773.2651</v>
+        <v>192717.617</v>
       </c>
       <c r="G41" t="n">
-        <v>3.818966666666669</v>
+        <v>3.819633333333336</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2013,28 +1849,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="C42" t="n">
         <v>3.9</v>
       </c>
       <c r="D42" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="E42" t="n">
         <v>3.9</v>
       </c>
       <c r="F42" t="n">
-        <v>30527.86</v>
+        <v>341773.2651</v>
       </c>
       <c r="G42" t="n">
-        <v>3.820450000000002</v>
+        <v>3.818966666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2048,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="C43" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="E43" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="F43" t="n">
-        <v>48010.1384</v>
+        <v>30527.86</v>
       </c>
       <c r="G43" t="n">
-        <v>3.820200000000002</v>
+        <v>3.820450000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2083,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.949</v>
+        <v>3.89</v>
       </c>
       <c r="C44" t="n">
-        <v>3.949</v>
+        <v>3.89</v>
       </c>
       <c r="D44" t="n">
-        <v>3.949</v>
+        <v>3.89</v>
       </c>
       <c r="E44" t="n">
-        <v>3.949</v>
+        <v>3.89</v>
       </c>
       <c r="F44" t="n">
-        <v>160</v>
+        <v>48010.1384</v>
       </c>
       <c r="G44" t="n">
-        <v>3.820750000000003</v>
+        <v>3.820200000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2118,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.89</v>
+        <v>3.949</v>
       </c>
       <c r="C45" t="n">
-        <v>3.89</v>
+        <v>3.949</v>
       </c>
       <c r="D45" t="n">
-        <v>3.89</v>
+        <v>3.949</v>
       </c>
       <c r="E45" t="n">
-        <v>3.89</v>
+        <v>3.949</v>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G45" t="n">
-        <v>3.820550000000003</v>
+        <v>3.820750000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2156,19 +1992,19 @@
         <v>3.89</v>
       </c>
       <c r="C46" t="n">
-        <v>3.868</v>
+        <v>3.89</v>
       </c>
       <c r="D46" t="n">
         <v>3.89</v>
       </c>
       <c r="E46" t="n">
-        <v>3.868</v>
+        <v>3.89</v>
       </c>
       <c r="F46" t="n">
-        <v>116196.3307</v>
+        <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>3.821683333333335</v>
+        <v>3.820550000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2188,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="C47" t="n">
-        <v>3.84</v>
+        <v>3.868</v>
       </c>
       <c r="D47" t="n">
-        <v>3.86</v>
+        <v>3.89</v>
       </c>
       <c r="E47" t="n">
-        <v>3.84</v>
+        <v>3.868</v>
       </c>
       <c r="F47" t="n">
-        <v>15666.3554</v>
+        <v>116196.3307</v>
       </c>
       <c r="G47" t="n">
-        <v>3.822350000000002</v>
+        <v>3.821683333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2223,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="C48" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="D48" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="E48" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="F48" t="n">
-        <v>260.8356</v>
+        <v>15666.3554</v>
       </c>
       <c r="G48" t="n">
-        <v>3.822850000000002</v>
+        <v>3.822350000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2258,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.823</v>
+        <v>3.83</v>
       </c>
       <c r="C49" t="n">
-        <v>3.812</v>
+        <v>3.83</v>
       </c>
       <c r="D49" t="n">
-        <v>3.823</v>
+        <v>3.83</v>
       </c>
       <c r="E49" t="n">
-        <v>3.812</v>
+        <v>3.83</v>
       </c>
       <c r="F49" t="n">
-        <v>124653.8953</v>
+        <v>260.8356</v>
       </c>
       <c r="G49" t="n">
-        <v>3.823466666666669</v>
+        <v>3.822850000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2293,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.829</v>
+        <v>3.823</v>
       </c>
       <c r="C50" t="n">
-        <v>3.89</v>
+        <v>3.812</v>
       </c>
       <c r="D50" t="n">
-        <v>3.89</v>
+        <v>3.823</v>
       </c>
       <c r="E50" t="n">
-        <v>3.829</v>
+        <v>3.812</v>
       </c>
       <c r="F50" t="n">
-        <v>104262.0765</v>
+        <v>124653.8953</v>
       </c>
       <c r="G50" t="n">
-        <v>3.825416666666669</v>
+        <v>3.823466666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2328,31 +2164,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.918</v>
+        <v>3.829</v>
       </c>
       <c r="C51" t="n">
-        <v>3.939</v>
+        <v>3.89</v>
       </c>
       <c r="D51" t="n">
-        <v>3.939</v>
+        <v>3.89</v>
       </c>
       <c r="E51" t="n">
-        <v>3.918</v>
+        <v>3.829</v>
       </c>
       <c r="F51" t="n">
-        <v>255</v>
+        <v>104262.0765</v>
       </c>
       <c r="G51" t="n">
-        <v>3.827733333333335</v>
+        <v>3.825416666666669</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.812</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2363,32 +2203,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.897</v>
+        <v>3.918</v>
       </c>
       <c r="C52" t="n">
-        <v>3.897</v>
+        <v>3.939</v>
       </c>
       <c r="D52" t="n">
-        <v>3.897</v>
+        <v>3.939</v>
       </c>
       <c r="E52" t="n">
-        <v>3.897</v>
+        <v>3.918</v>
       </c>
       <c r="F52" t="n">
-        <v>574.1301999999999</v>
+        <v>255</v>
       </c>
       <c r="G52" t="n">
-        <v>3.829783333333335</v>
+        <v>3.827733333333335</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2410,10 +2258,10 @@
         <v>3.897</v>
       </c>
       <c r="F53" t="n">
-        <v>666.8026</v>
+        <v>574.1301999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>3.831400000000001</v>
+        <v>3.829783333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2422,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2433,22 +2287,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.864</v>
+        <v>3.897</v>
       </c>
       <c r="C54" t="n">
-        <v>3.864</v>
+        <v>3.897</v>
       </c>
       <c r="D54" t="n">
-        <v>3.864</v>
+        <v>3.897</v>
       </c>
       <c r="E54" t="n">
-        <v>3.864</v>
+        <v>3.897</v>
       </c>
       <c r="F54" t="n">
-        <v>47075.6049</v>
+        <v>666.8026</v>
       </c>
       <c r="G54" t="n">
-        <v>3.832466666666668</v>
+        <v>3.831400000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2480,10 +2334,10 @@
         <v>3.864</v>
       </c>
       <c r="F55" t="n">
-        <v>87000</v>
+        <v>47075.6049</v>
       </c>
       <c r="G55" t="n">
-        <v>3.833950000000001</v>
+        <v>3.832466666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2503,22 +2357,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.95</v>
+        <v>3.864</v>
       </c>
       <c r="C56" t="n">
-        <v>3.95</v>
+        <v>3.864</v>
       </c>
       <c r="D56" t="n">
-        <v>3.95</v>
+        <v>3.864</v>
       </c>
       <c r="E56" t="n">
-        <v>3.95</v>
+        <v>3.864</v>
       </c>
       <c r="F56" t="n">
-        <v>6403.1604</v>
+        <v>87000</v>
       </c>
       <c r="G56" t="n">
-        <v>3.836900000000001</v>
+        <v>3.833950000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2550,10 +2404,10 @@
         <v>3.95</v>
       </c>
       <c r="F57" t="n">
-        <v>984.5817</v>
+        <v>6403.1604</v>
       </c>
       <c r="G57" t="n">
-        <v>3.841066666666668</v>
+        <v>3.836900000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2585,10 +2439,10 @@
         <v>3.95</v>
       </c>
       <c r="F58" t="n">
-        <v>18190</v>
+        <v>984.5817</v>
       </c>
       <c r="G58" t="n">
-        <v>3.843766666666667</v>
+        <v>3.841066666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2611,19 +2465,19 @@
         <v>3.95</v>
       </c>
       <c r="C59" t="n">
-        <v>3.928</v>
+        <v>3.95</v>
       </c>
       <c r="D59" t="n">
         <v>3.95</v>
       </c>
       <c r="E59" t="n">
-        <v>3.928</v>
+        <v>3.95</v>
       </c>
       <c r="F59" t="n">
-        <v>80000</v>
+        <v>18190</v>
       </c>
       <c r="G59" t="n">
-        <v>3.84755</v>
+        <v>3.843766666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2643,22 +2497,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.928</v>
+        <v>3.95</v>
       </c>
       <c r="C60" t="n">
         <v>3.928</v>
       </c>
       <c r="D60" t="n">
-        <v>3.928</v>
+        <v>3.95</v>
       </c>
       <c r="E60" t="n">
         <v>3.928</v>
       </c>
       <c r="F60" t="n">
-        <v>1440.2391</v>
+        <v>80000</v>
       </c>
       <c r="G60" t="n">
-        <v>3.8506</v>
+        <v>3.84755</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2678,22 +2532,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.856</v>
+        <v>3.928</v>
       </c>
       <c r="C61" t="n">
-        <v>3.856</v>
+        <v>3.928</v>
       </c>
       <c r="D61" t="n">
-        <v>3.856</v>
+        <v>3.928</v>
       </c>
       <c r="E61" t="n">
-        <v>3.856</v>
+        <v>3.928</v>
       </c>
       <c r="F61" t="n">
-        <v>173872.7419</v>
+        <v>1440.2391</v>
       </c>
       <c r="G61" t="n">
-        <v>3.85245</v>
+        <v>3.8506</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2725,10 +2579,10 @@
         <v>3.856</v>
       </c>
       <c r="F62" t="n">
-        <v>45536.3313</v>
+        <v>173872.7419</v>
       </c>
       <c r="G62" t="n">
-        <v>3.854816666666667</v>
+        <v>3.85245</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2748,22 +2602,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.915</v>
+        <v>3.856</v>
       </c>
       <c r="C63" t="n">
-        <v>4.021</v>
+        <v>3.856</v>
       </c>
       <c r="D63" t="n">
-        <v>4.021</v>
+        <v>3.856</v>
       </c>
       <c r="E63" t="n">
-        <v>3.915</v>
+        <v>3.856</v>
       </c>
       <c r="F63" t="n">
-        <v>687883.662836781</v>
+        <v>45536.3313</v>
       </c>
       <c r="G63" t="n">
-        <v>3.859933333333333</v>
+        <v>3.854816666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2783,22 +2637,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.011</v>
+        <v>3.915</v>
       </c>
       <c r="C64" t="n">
-        <v>4.011</v>
+        <v>4.021</v>
       </c>
       <c r="D64" t="n">
-        <v>4.011</v>
+        <v>4.021</v>
       </c>
       <c r="E64" t="n">
-        <v>4.011</v>
+        <v>3.915</v>
       </c>
       <c r="F64" t="n">
-        <v>71006.5897</v>
+        <v>687883.662836781</v>
       </c>
       <c r="G64" t="n">
-        <v>3.864883333333333</v>
+        <v>3.859933333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2818,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.98</v>
+        <v>4.011</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>4.011</v>
       </c>
       <c r="D65" t="n">
-        <v>4.01</v>
+        <v>4.011</v>
       </c>
       <c r="E65" t="n">
-        <v>3.98</v>
+        <v>4.011</v>
       </c>
       <c r="F65" t="n">
-        <v>32810</v>
+        <v>71006.5897</v>
       </c>
       <c r="G65" t="n">
-        <v>3.86965</v>
+        <v>3.864883333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2853,22 +2707,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="F66" t="n">
-        <v>47910.1167</v>
+        <v>32810</v>
       </c>
       <c r="G66" t="n">
-        <v>3.8739</v>
+        <v>3.86965</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2900,10 +2754,10 @@
         <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>5890.5665</v>
+        <v>47910.1167</v>
       </c>
       <c r="G67" t="n">
-        <v>3.878166666666667</v>
+        <v>3.8739</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2935,10 +2789,10 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>51519.25</v>
+        <v>5890.5665</v>
       </c>
       <c r="G68" t="n">
-        <v>3.882433333333333</v>
+        <v>3.878166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2958,22 +2812,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>72120</v>
+        <v>51519.25</v>
       </c>
       <c r="G69" t="n">
-        <v>3.885866666666666</v>
+        <v>3.882433333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2993,22 +2847,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="C70" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="D70" t="n">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
       <c r="E70" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="F70" t="n">
-        <v>26570.777</v>
+        <v>72120</v>
       </c>
       <c r="G70" t="n">
-        <v>3.8886</v>
+        <v>3.885866666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3028,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="C71" t="n">
-        <v>3.95</v>
+        <v>3.924</v>
       </c>
       <c r="D71" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="E71" t="n">
-        <v>3.95</v>
+        <v>3.924</v>
       </c>
       <c r="F71" t="n">
-        <v>10875.0478</v>
+        <v>26570.777</v>
       </c>
       <c r="G71" t="n">
-        <v>3.892466666666667</v>
+        <v>3.8886</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3063,22 +2917,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="C72" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="D72" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="E72" t="n">
-        <v>3.924</v>
+        <v>3.95</v>
       </c>
       <c r="F72" t="n">
-        <v>87792.6856</v>
+        <v>10875.0478</v>
       </c>
       <c r="G72" t="n">
-        <v>3.895916666666666</v>
+        <v>3.892466666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3098,22 +2952,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.914</v>
+        <v>3.924</v>
       </c>
       <c r="C73" t="n">
-        <v>3.914</v>
+        <v>3.924</v>
       </c>
       <c r="D73" t="n">
-        <v>3.914</v>
+        <v>3.924</v>
       </c>
       <c r="E73" t="n">
-        <v>3.914</v>
+        <v>3.924</v>
       </c>
       <c r="F73" t="n">
-        <v>902.0141</v>
+        <v>87792.6856</v>
       </c>
       <c r="G73" t="n">
-        <v>3.899216666666666</v>
+        <v>3.895916666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3133,22 +2987,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.927</v>
+        <v>3.914</v>
       </c>
       <c r="C74" t="n">
-        <v>3.928</v>
+        <v>3.914</v>
       </c>
       <c r="D74" t="n">
-        <v>3.928</v>
+        <v>3.914</v>
       </c>
       <c r="E74" t="n">
-        <v>3.927</v>
+        <v>3.914</v>
       </c>
       <c r="F74" t="n">
-        <v>77076.7136</v>
+        <v>902.0141</v>
       </c>
       <c r="G74" t="n">
-        <v>3.902749999999999</v>
+        <v>3.899216666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3168,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.928</v>
+        <v>3.927</v>
       </c>
       <c r="C75" t="n">
         <v>3.928</v>
@@ -3177,13 +3031,13 @@
         <v>3.928</v>
       </c>
       <c r="E75" t="n">
-        <v>3.928</v>
+        <v>3.927</v>
       </c>
       <c r="F75" t="n">
-        <v>727.9865</v>
+        <v>77076.7136</v>
       </c>
       <c r="G75" t="n">
-        <v>3.905766666666666</v>
+        <v>3.902749999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3203,22 +3057,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.914</v>
+        <v>3.928</v>
       </c>
       <c r="C76" t="n">
-        <v>3.911</v>
+        <v>3.928</v>
       </c>
       <c r="D76" t="n">
-        <v>3.914</v>
+        <v>3.928</v>
       </c>
       <c r="E76" t="n">
-        <v>3.911</v>
+        <v>3.928</v>
       </c>
       <c r="F76" t="n">
-        <v>100000</v>
+        <v>727.9865</v>
       </c>
       <c r="G76" t="n">
-        <v>3.907833333333332</v>
+        <v>3.905766666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3238,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="C77" t="n">
         <v>3.911</v>
       </c>
-      <c r="C77" t="n">
-        <v>3.87</v>
-      </c>
       <c r="D77" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="E77" t="n">
         <v>3.911</v>
       </c>
-      <c r="E77" t="n">
-        <v>3.87</v>
-      </c>
       <c r="F77" t="n">
-        <v>104444.1974</v>
+        <v>100000</v>
       </c>
       <c r="G77" t="n">
-        <v>3.909716666666666</v>
+        <v>3.907833333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3273,22 +3127,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.86</v>
+        <v>3.911</v>
       </c>
       <c r="C78" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="D78" t="n">
-        <v>3.86</v>
+        <v>3.911</v>
       </c>
       <c r="E78" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="F78" t="n">
-        <v>2588.6616</v>
+        <v>104444.1974</v>
       </c>
       <c r="G78" t="n">
-        <v>3.909916666666666</v>
+        <v>3.909716666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3308,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.859</v>
+        <v>3.86</v>
       </c>
       <c r="C79" t="n">
         <v>3.86</v>
@@ -3317,13 +3171,13 @@
         <v>3.86</v>
       </c>
       <c r="E79" t="n">
-        <v>3.859</v>
+        <v>3.86</v>
       </c>
       <c r="F79" t="n">
-        <v>406724.5493</v>
+        <v>2588.6616</v>
       </c>
       <c r="G79" t="n">
-        <v>3.911749999999999</v>
+        <v>3.909916666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3343,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.86</v>
+        <v>3.859</v>
       </c>
       <c r="C80" t="n">
         <v>3.86</v>
@@ -3352,13 +3206,13 @@
         <v>3.86</v>
       </c>
       <c r="E80" t="n">
-        <v>3.86</v>
+        <v>3.859</v>
       </c>
       <c r="F80" t="n">
-        <v>279974.5942</v>
+        <v>406724.5493</v>
       </c>
       <c r="G80" t="n">
-        <v>3.912249999999999</v>
+        <v>3.911749999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3378,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="C81" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="D81" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="E81" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="F81" t="n">
-        <v>111043.9578</v>
+        <v>279974.5942</v>
       </c>
       <c r="G81" t="n">
-        <v>3.913483333333333</v>
+        <v>3.912249999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3413,22 +3267,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.865</v>
+        <v>3.864</v>
       </c>
       <c r="C82" t="n">
         <v>3.864</v>
       </c>
       <c r="D82" t="n">
-        <v>3.865</v>
+        <v>3.864</v>
       </c>
       <c r="E82" t="n">
         <v>3.864</v>
       </c>
       <c r="F82" t="n">
-        <v>301484.7672</v>
+        <v>111043.9578</v>
       </c>
       <c r="G82" t="n">
-        <v>3.914049999999999</v>
+        <v>3.913483333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3448,22 +3302,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.863</v>
+        <v>3.865</v>
       </c>
       <c r="C83" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="D83" t="n">
-        <v>3.863</v>
+        <v>3.865</v>
       </c>
       <c r="E83" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="F83" t="n">
-        <v>141900.0213</v>
+        <v>301484.7672</v>
       </c>
       <c r="G83" t="n">
-        <v>3.9142</v>
+        <v>3.914049999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3483,22 +3337,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.86</v>
+        <v>3.863</v>
       </c>
       <c r="C84" t="n">
         <v>3.86</v>
       </c>
       <c r="D84" t="n">
-        <v>3.86</v>
+        <v>3.863</v>
       </c>
       <c r="E84" t="n">
         <v>3.86</v>
       </c>
       <c r="F84" t="n">
-        <v>143447.3842</v>
+        <v>141900.0213</v>
       </c>
       <c r="G84" t="n">
-        <v>3.913533333333333</v>
+        <v>3.9142</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3530,10 +3384,10 @@
         <v>3.86</v>
       </c>
       <c r="F85" t="n">
-        <v>200000</v>
+        <v>143447.3842</v>
       </c>
       <c r="G85" t="n">
-        <v>3.9137</v>
+        <v>3.913533333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3553,22 +3407,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="C86" t="n">
         <v>3.86</v>
       </c>
       <c r="D86" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="E86" t="n">
         <v>3.86</v>
       </c>
       <c r="F86" t="n">
-        <v>43448.7216</v>
+        <v>200000</v>
       </c>
       <c r="G86" t="n">
-        <v>3.913033333333333</v>
+        <v>3.9137</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3588,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="C87" t="n">
         <v>3.86</v>
       </c>
       <c r="D87" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="E87" t="n">
         <v>3.86</v>
       </c>
       <c r="F87" t="n">
-        <v>6551.2784</v>
+        <v>43448.7216</v>
       </c>
       <c r="G87" t="n">
-        <v>3.913200000000001</v>
+        <v>3.913033333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3635,10 +3489,10 @@
         <v>3.86</v>
       </c>
       <c r="F88" t="n">
-        <v>91676.83779999999</v>
+        <v>6551.2784</v>
       </c>
       <c r="G88" t="n">
-        <v>3.913533333333334</v>
+        <v>3.913200000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3670,10 +3524,10 @@
         <v>3.86</v>
       </c>
       <c r="F89" t="n">
-        <v>8323.162200000001</v>
+        <v>91676.83779999999</v>
       </c>
       <c r="G89" t="n">
-        <v>3.913050000000001</v>
+        <v>3.913533333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3693,22 +3547,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.878</v>
+        <v>3.86</v>
       </c>
       <c r="C90" t="n">
-        <v>3.888</v>
+        <v>3.86</v>
       </c>
       <c r="D90" t="n">
-        <v>3.888</v>
+        <v>3.86</v>
       </c>
       <c r="E90" t="n">
-        <v>3.878</v>
+        <v>3.86</v>
       </c>
       <c r="F90" t="n">
-        <v>60460.1498</v>
+        <v>8323.162200000001</v>
       </c>
       <c r="G90" t="n">
-        <v>3.912866666666667</v>
+        <v>3.913050000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3728,22 +3582,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.865</v>
+        <v>3.878</v>
       </c>
       <c r="C91" t="n">
-        <v>3.865</v>
+        <v>3.888</v>
       </c>
       <c r="D91" t="n">
-        <v>3.865</v>
+        <v>3.888</v>
       </c>
       <c r="E91" t="n">
-        <v>3.865</v>
+        <v>3.878</v>
       </c>
       <c r="F91" t="n">
-        <v>13620</v>
+        <v>60460.1498</v>
       </c>
       <c r="G91" t="n">
-        <v>3.912300000000001</v>
+        <v>3.912866666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3763,22 +3617,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.859</v>
+        <v>3.865</v>
       </c>
       <c r="C92" t="n">
-        <v>3.85</v>
+        <v>3.865</v>
       </c>
       <c r="D92" t="n">
-        <v>3.859</v>
+        <v>3.865</v>
       </c>
       <c r="E92" t="n">
-        <v>3.85</v>
+        <v>3.865</v>
       </c>
       <c r="F92" t="n">
-        <v>74094.1492</v>
+        <v>13620</v>
       </c>
       <c r="G92" t="n">
-        <v>3.911650000000001</v>
+        <v>3.912300000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3798,22 +3652,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="C93" t="n">
         <v>3.85</v>
       </c>
-      <c r="C93" t="n">
-        <v>3.849</v>
-      </c>
       <c r="D93" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="E93" t="n">
         <v>3.85</v>
       </c>
-      <c r="E93" t="n">
-        <v>3.849</v>
-      </c>
       <c r="F93" t="n">
-        <v>2889.6782</v>
+        <v>74094.1492</v>
       </c>
       <c r="G93" t="n">
-        <v>3.910150000000001</v>
+        <v>3.911650000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3833,22 +3687,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="C94" t="n">
-        <v>3.848</v>
+        <v>3.849</v>
       </c>
       <c r="D94" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="E94" t="n">
-        <v>3.848</v>
+        <v>3.849</v>
       </c>
       <c r="F94" t="n">
-        <v>850</v>
+        <v>2889.6782</v>
       </c>
       <c r="G94" t="n">
-        <v>3.908616666666668</v>
+        <v>3.910150000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3880,10 +3734,10 @@
         <v>3.848</v>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G95" t="n">
-        <v>3.907083333333334</v>
+        <v>3.908616666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3903,22 +3757,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="C96" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="D96" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="E96" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="F96" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G96" t="n">
-        <v>3.905533333333335</v>
+        <v>3.907083333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3938,22 +3792,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="C97" t="n">
-        <v>3.845</v>
+        <v>3.847</v>
       </c>
       <c r="D97" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="E97" t="n">
-        <v>3.845</v>
+        <v>3.847</v>
       </c>
       <c r="F97" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G97" t="n">
-        <v>3.902650000000001</v>
+        <v>3.905533333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3973,22 +3827,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.844</v>
+        <v>3.846</v>
       </c>
       <c r="C98" t="n">
-        <v>3.844</v>
+        <v>3.845</v>
       </c>
       <c r="D98" t="n">
-        <v>3.844</v>
+        <v>3.846</v>
       </c>
       <c r="E98" t="n">
-        <v>3.844</v>
+        <v>3.845</v>
       </c>
       <c r="F98" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G98" t="n">
-        <v>3.899700000000001</v>
+        <v>3.902650000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4008,22 +3862,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.843</v>
+        <v>3.844</v>
       </c>
       <c r="C99" t="n">
-        <v>3.843</v>
+        <v>3.844</v>
       </c>
       <c r="D99" t="n">
-        <v>3.843</v>
+        <v>3.844</v>
       </c>
       <c r="E99" t="n">
-        <v>3.843</v>
+        <v>3.844</v>
       </c>
       <c r="F99" t="n">
         <v>700</v>
       </c>
       <c r="G99" t="n">
-        <v>3.896733333333335</v>
+        <v>3.899700000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4043,22 +3897,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.842</v>
+        <v>3.843</v>
       </c>
       <c r="C100" t="n">
-        <v>3.842</v>
+        <v>3.843</v>
       </c>
       <c r="D100" t="n">
-        <v>3.842</v>
+        <v>3.843</v>
       </c>
       <c r="E100" t="n">
-        <v>3.842</v>
+        <v>3.843</v>
       </c>
       <c r="F100" t="n">
         <v>700</v>
       </c>
       <c r="G100" t="n">
-        <v>3.894600000000002</v>
+        <v>3.896733333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4078,22 +3932,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.841</v>
+        <v>3.842</v>
       </c>
       <c r="C101" t="n">
-        <v>3.839</v>
+        <v>3.842</v>
       </c>
       <c r="D101" t="n">
-        <v>3.841</v>
+        <v>3.842</v>
       </c>
       <c r="E101" t="n">
-        <v>3.839</v>
+        <v>3.842</v>
       </c>
       <c r="F101" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="G101" t="n">
-        <v>3.893583333333335</v>
+        <v>3.894600000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4113,22 +3967,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.838</v>
+        <v>3.841</v>
       </c>
       <c r="C102" t="n">
-        <v>3.835</v>
+        <v>3.839</v>
       </c>
       <c r="D102" t="n">
-        <v>3.838</v>
+        <v>3.841</v>
       </c>
       <c r="E102" t="n">
-        <v>3.835</v>
+        <v>3.839</v>
       </c>
       <c r="F102" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="G102" t="n">
-        <v>3.892500000000001</v>
+        <v>3.893583333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4148,22 +4002,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.834</v>
+        <v>3.838</v>
       </c>
       <c r="C103" t="n">
-        <v>3.833</v>
+        <v>3.835</v>
       </c>
       <c r="D103" t="n">
-        <v>3.834</v>
+        <v>3.838</v>
       </c>
       <c r="E103" t="n">
-        <v>3.833</v>
+        <v>3.835</v>
       </c>
       <c r="F103" t="n">
-        <v>4065.3056</v>
+        <v>2800</v>
       </c>
       <c r="G103" t="n">
-        <v>3.891550000000002</v>
+        <v>3.892500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4183,22 +4037,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.832</v>
+        <v>3.834</v>
       </c>
       <c r="C104" t="n">
-        <v>3.832</v>
+        <v>3.833</v>
       </c>
       <c r="D104" t="n">
-        <v>3.832</v>
+        <v>3.834</v>
       </c>
       <c r="E104" t="n">
-        <v>3.832</v>
+        <v>3.833</v>
       </c>
       <c r="F104" t="n">
-        <v>700</v>
+        <v>4065.3056</v>
       </c>
       <c r="G104" t="n">
-        <v>3.889600000000002</v>
+        <v>3.891550000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4218,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.831</v>
+        <v>3.832</v>
       </c>
       <c r="C105" t="n">
-        <v>3.827</v>
+        <v>3.832</v>
       </c>
       <c r="D105" t="n">
-        <v>3.831</v>
+        <v>3.832</v>
       </c>
       <c r="E105" t="n">
-        <v>3.827</v>
+        <v>3.832</v>
       </c>
       <c r="F105" t="n">
-        <v>175746.3698</v>
+        <v>700</v>
       </c>
       <c r="G105" t="n">
-        <v>3.888550000000002</v>
+        <v>3.889600000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4253,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.83</v>
+        <v>3.831</v>
       </c>
       <c r="C106" t="n">
-        <v>3.831</v>
+        <v>3.827</v>
       </c>
       <c r="D106" t="n">
         <v>3.831</v>
       </c>
       <c r="E106" t="n">
-        <v>3.83</v>
+        <v>3.827</v>
       </c>
       <c r="F106" t="n">
-        <v>287838.032</v>
+        <v>175746.3698</v>
       </c>
       <c r="G106" t="n">
-        <v>3.887933333333335</v>
+        <v>3.888550000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4288,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="C107" t="n">
         <v>3.831</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.827</v>
-      </c>
       <c r="D107" t="n">
-        <v>3.841</v>
+        <v>3.831</v>
       </c>
       <c r="E107" t="n">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="F107" t="n">
-        <v>839403.876200702</v>
+        <v>287838.032</v>
       </c>
       <c r="G107" t="n">
-        <v>3.887716666666668</v>
+        <v>3.887933333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4326,19 +4180,19 @@
         <v>3.831</v>
       </c>
       <c r="C108" t="n">
-        <v>3.831</v>
+        <v>3.827</v>
       </c>
       <c r="D108" t="n">
-        <v>3.831</v>
+        <v>3.841</v>
       </c>
       <c r="E108" t="n">
-        <v>3.831</v>
+        <v>3.81</v>
       </c>
       <c r="F108" t="n">
-        <v>8820.3218</v>
+        <v>839403.876200702</v>
       </c>
       <c r="G108" t="n">
-        <v>3.887733333333335</v>
+        <v>3.887716666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4358,22 +4212,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.841</v>
+        <v>3.831</v>
       </c>
       <c r="C109" t="n">
-        <v>3.841</v>
+        <v>3.831</v>
       </c>
       <c r="D109" t="n">
-        <v>3.841</v>
+        <v>3.831</v>
       </c>
       <c r="E109" t="n">
-        <v>3.841</v>
+        <v>3.831</v>
       </c>
       <c r="F109" t="n">
-        <v>140307.0609</v>
+        <v>8820.3218</v>
       </c>
       <c r="G109" t="n">
-        <v>3.888216666666668</v>
+        <v>3.887733333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4405,10 +4259,10 @@
         <v>3.841</v>
       </c>
       <c r="F110" t="n">
-        <v>103750.8182</v>
+        <v>140307.0609</v>
       </c>
       <c r="G110" t="n">
-        <v>3.887400000000001</v>
+        <v>3.888216666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4440,10 +4294,10 @@
         <v>3.841</v>
       </c>
       <c r="F111" t="n">
-        <v>100734.1734</v>
+        <v>103750.8182</v>
       </c>
       <c r="G111" t="n">
-        <v>3.885766666666668</v>
+        <v>3.887400000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4475,10 +4329,10 @@
         <v>3.841</v>
       </c>
       <c r="F112" t="n">
-        <v>553257.2394</v>
+        <v>100734.1734</v>
       </c>
       <c r="G112" t="n">
-        <v>3.884833333333335</v>
+        <v>3.885766666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4510,10 +4364,10 @@
         <v>3.841</v>
       </c>
       <c r="F113" t="n">
-        <v>85815.865399298</v>
+        <v>553257.2394</v>
       </c>
       <c r="G113" t="n">
-        <v>3.883900000000002</v>
+        <v>3.884833333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4533,22 +4387,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.93</v>
+        <v>3.841</v>
       </c>
       <c r="C114" t="n">
-        <v>3.93</v>
+        <v>3.841</v>
       </c>
       <c r="D114" t="n">
-        <v>3.93</v>
+        <v>3.841</v>
       </c>
       <c r="E114" t="n">
-        <v>3.93</v>
+        <v>3.841</v>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>85815.865399298</v>
       </c>
       <c r="G114" t="n">
-        <v>3.885000000000002</v>
+        <v>3.883900000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4568,22 +4422,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="C115" t="n">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="D115" t="n">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="E115" t="n">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="F115" t="n">
         <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>3.884766666666669</v>
+        <v>3.885000000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4603,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.849</v>
+        <v>3.85</v>
       </c>
       <c r="C116" t="n">
-        <v>3.849</v>
+        <v>3.85</v>
       </c>
       <c r="D116" t="n">
-        <v>3.849</v>
+        <v>3.85</v>
       </c>
       <c r="E116" t="n">
-        <v>3.849</v>
+        <v>3.85</v>
       </c>
       <c r="F116" t="n">
         <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>3.883083333333336</v>
+        <v>3.884766666666669</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4638,22 +4492,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.85</v>
+        <v>3.849</v>
       </c>
       <c r="C117" t="n">
-        <v>3.85</v>
+        <v>3.849</v>
       </c>
       <c r="D117" t="n">
-        <v>3.85</v>
+        <v>3.849</v>
       </c>
       <c r="E117" t="n">
-        <v>3.85</v>
+        <v>3.849</v>
       </c>
       <c r="F117" t="n">
-        <v>5256.6816</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="n">
-        <v>3.881416666666669</v>
+        <v>3.883083333333336</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4673,22 +4527,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="C118" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="D118" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="E118" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>5256.6816</v>
       </c>
       <c r="G118" t="n">
-        <v>3.879716666666669</v>
+        <v>3.881416666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4708,22 +4562,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="C119" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="D119" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="E119" t="n">
-        <v>3.847</v>
+        <v>3.848</v>
       </c>
       <c r="F119" t="n">
         <v>1000</v>
       </c>
       <c r="G119" t="n">
-        <v>3.87836666666667</v>
+        <v>3.879716666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4743,22 +4597,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="C120" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="D120" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="E120" t="n">
-        <v>3.846</v>
+        <v>3.847</v>
       </c>
       <c r="F120" t="n">
         <v>1000</v>
       </c>
       <c r="G120" t="n">
-        <v>3.877000000000003</v>
+        <v>3.87836666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4790,10 +4644,10 @@
         <v>3.846</v>
       </c>
       <c r="F121" t="n">
-        <v>5015.7264</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>3.876833333333336</v>
+        <v>3.877000000000003</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4813,22 +4667,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.848</v>
+        <v>3.846</v>
       </c>
       <c r="C122" t="n">
-        <v>3.85</v>
+        <v>3.846</v>
       </c>
       <c r="D122" t="n">
-        <v>3.85</v>
+        <v>3.846</v>
       </c>
       <c r="E122" t="n">
-        <v>3.848</v>
+        <v>3.846</v>
       </c>
       <c r="F122" t="n">
-        <v>416581.2768</v>
+        <v>5015.7264</v>
       </c>
       <c r="G122" t="n">
-        <v>3.876733333333336</v>
+        <v>3.876833333333336</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4848,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.94</v>
+        <v>3.848</v>
       </c>
       <c r="C123" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="D123" t="n">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="E123" t="n">
-        <v>3.94</v>
+        <v>3.848</v>
       </c>
       <c r="F123" t="n">
-        <v>127</v>
+        <v>416581.2768</v>
       </c>
       <c r="G123" t="n">
-        <v>3.875383333333337</v>
+        <v>3.876733333333336</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4898,7 +4752,7 @@
         <v>127</v>
       </c>
       <c r="G124" t="n">
-        <v>3.874200000000003</v>
+        <v>3.875383333333337</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4918,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.851</v>
+        <v>3.94</v>
       </c>
       <c r="C125" t="n">
-        <v>3.851</v>
+        <v>3.94</v>
       </c>
       <c r="D125" t="n">
-        <v>3.851</v>
+        <v>3.94</v>
       </c>
       <c r="E125" t="n">
-        <v>3.851</v>
+        <v>3.94</v>
       </c>
       <c r="F125" t="n">
-        <v>17137.9937</v>
+        <v>127</v>
       </c>
       <c r="G125" t="n">
-        <v>3.87171666666667</v>
+        <v>3.874200000000003</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4953,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.85</v>
+        <v>3.851</v>
       </c>
       <c r="C126" t="n">
-        <v>3.85</v>
+        <v>3.851</v>
       </c>
       <c r="D126" t="n">
-        <v>3.85</v>
+        <v>3.851</v>
       </c>
       <c r="E126" t="n">
-        <v>3.85</v>
+        <v>3.851</v>
       </c>
       <c r="F126" t="n">
-        <v>80306.36810000001</v>
+        <v>17137.9937</v>
       </c>
       <c r="G126" t="n">
-        <v>3.86921666666667</v>
+        <v>3.87171666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4988,22 +4842,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.856</v>
+        <v>3.85</v>
       </c>
       <c r="C127" t="n">
-        <v>3.856</v>
+        <v>3.85</v>
       </c>
       <c r="D127" t="n">
-        <v>3.856</v>
+        <v>3.85</v>
       </c>
       <c r="E127" t="n">
-        <v>3.856</v>
+        <v>3.85</v>
       </c>
       <c r="F127" t="n">
-        <v>346.398</v>
+        <v>80306.36810000001</v>
       </c>
       <c r="G127" t="n">
-        <v>3.86681666666667</v>
+        <v>3.86921666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5035,10 +4889,10 @@
         <v>3.856</v>
       </c>
       <c r="F128" t="n">
-        <v>15271.3669</v>
+        <v>346.398</v>
       </c>
       <c r="G128" t="n">
-        <v>3.86441666666667</v>
+        <v>3.86681666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5058,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.94</v>
+        <v>3.856</v>
       </c>
       <c r="C129" t="n">
-        <v>3.94</v>
+        <v>3.856</v>
       </c>
       <c r="D129" t="n">
-        <v>3.94</v>
+        <v>3.856</v>
       </c>
       <c r="E129" t="n">
-        <v>3.94</v>
+        <v>3.856</v>
       </c>
       <c r="F129" t="n">
-        <v>3824.7892</v>
+        <v>15271.3669</v>
       </c>
       <c r="G129" t="n">
-        <v>3.864250000000003</v>
+        <v>3.86441666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5093,22 +4947,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.948</v>
+        <v>3.94</v>
       </c>
       <c r="C130" t="n">
-        <v>3.948</v>
+        <v>3.94</v>
       </c>
       <c r="D130" t="n">
-        <v>3.948</v>
+        <v>3.94</v>
       </c>
       <c r="E130" t="n">
-        <v>3.948</v>
+        <v>3.94</v>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>3824.7892</v>
       </c>
       <c r="G130" t="n">
-        <v>3.864650000000003</v>
+        <v>3.864250000000003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5134,16 +4988,16 @@
         <v>3.948</v>
       </c>
       <c r="D131" t="n">
-        <v>3.949</v>
+        <v>3.948</v>
       </c>
       <c r="E131" t="n">
         <v>3.948</v>
       </c>
       <c r="F131" t="n">
-        <v>774665.6723</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>3.86461666666667</v>
+        <v>3.864650000000003</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5163,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.881</v>
+        <v>3.948</v>
       </c>
       <c r="C132" t="n">
-        <v>3.85</v>
+        <v>3.948</v>
       </c>
       <c r="D132" t="n">
-        <v>3.881</v>
+        <v>3.949</v>
       </c>
       <c r="E132" t="n">
-        <v>3.85</v>
+        <v>3.948</v>
       </c>
       <c r="F132" t="n">
-        <v>130000</v>
+        <v>774665.6723</v>
       </c>
       <c r="G132" t="n">
-        <v>3.863383333333337</v>
+        <v>3.86461666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5198,22 +5052,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.937</v>
+        <v>3.881</v>
       </c>
       <c r="C133" t="n">
-        <v>3.937</v>
+        <v>3.85</v>
       </c>
       <c r="D133" t="n">
-        <v>3.937</v>
+        <v>3.881</v>
       </c>
       <c r="E133" t="n">
-        <v>3.937</v>
+        <v>3.85</v>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>130000</v>
       </c>
       <c r="G133" t="n">
-        <v>3.86376666666667</v>
+        <v>3.863383333333337</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5245,10 +5099,10 @@
         <v>3.937</v>
       </c>
       <c r="F134" t="n">
-        <v>14196.5659</v>
+        <v>1000</v>
       </c>
       <c r="G134" t="n">
-        <v>3.86391666666667</v>
+        <v>3.86376666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5268,22 +5122,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.914</v>
+        <v>3.937</v>
       </c>
       <c r="C135" t="n">
-        <v>3.949</v>
+        <v>3.937</v>
       </c>
       <c r="D135" t="n">
-        <v>3.949</v>
+        <v>3.937</v>
       </c>
       <c r="E135" t="n">
-        <v>3.914</v>
+        <v>3.937</v>
       </c>
       <c r="F135" t="n">
-        <v>44270.714826285</v>
+        <v>14196.5659</v>
       </c>
       <c r="G135" t="n">
-        <v>3.864266666666671</v>
+        <v>3.86391666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5303,22 +5157,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.889</v>
+        <v>3.914</v>
       </c>
       <c r="C136" t="n">
-        <v>3.889</v>
+        <v>3.949</v>
       </c>
       <c r="D136" t="n">
-        <v>3.889</v>
+        <v>3.949</v>
       </c>
       <c r="E136" t="n">
-        <v>3.889</v>
+        <v>3.914</v>
       </c>
       <c r="F136" t="n">
-        <v>15190</v>
+        <v>44270.714826285</v>
       </c>
       <c r="G136" t="n">
-        <v>3.863900000000004</v>
+        <v>3.864266666666671</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5338,22 +5192,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.89</v>
+        <v>3.889</v>
       </c>
       <c r="C137" t="n">
-        <v>3.888</v>
+        <v>3.889</v>
       </c>
       <c r="D137" t="n">
-        <v>3.89</v>
+        <v>3.889</v>
       </c>
       <c r="E137" t="n">
-        <v>3.888</v>
+        <v>3.889</v>
       </c>
       <c r="F137" t="n">
-        <v>37320</v>
+        <v>15190</v>
       </c>
       <c r="G137" t="n">
-        <v>3.864200000000004</v>
+        <v>3.863900000000004</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5373,22 +5227,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.939</v>
+        <v>3.89</v>
       </c>
       <c r="C138" t="n">
-        <v>3.939</v>
+        <v>3.888</v>
       </c>
       <c r="D138" t="n">
-        <v>3.939</v>
+        <v>3.89</v>
       </c>
       <c r="E138" t="n">
-        <v>3.939</v>
+        <v>3.888</v>
       </c>
       <c r="F138" t="n">
-        <v>127</v>
+        <v>37320</v>
       </c>
       <c r="G138" t="n">
-        <v>3.865516666666671</v>
+        <v>3.864200000000004</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5408,22 +5262,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.888</v>
+        <v>3.939</v>
       </c>
       <c r="C139" t="n">
-        <v>3.888</v>
+        <v>3.939</v>
       </c>
       <c r="D139" t="n">
-        <v>3.888</v>
+        <v>3.939</v>
       </c>
       <c r="E139" t="n">
-        <v>3.888</v>
+        <v>3.939</v>
       </c>
       <c r="F139" t="n">
-        <v>17620</v>
+        <v>127</v>
       </c>
       <c r="G139" t="n">
-        <v>3.865983333333337</v>
+        <v>3.865516666666671</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5455,10 +5309,10 @@
         <v>3.888</v>
       </c>
       <c r="F140" t="n">
-        <v>8870</v>
+        <v>17620</v>
       </c>
       <c r="G140" t="n">
-        <v>3.866450000000003</v>
+        <v>3.865983333333337</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5493,7 +5347,7 @@
         <v>8870</v>
       </c>
       <c r="G141" t="n">
-        <v>3.866850000000004</v>
+        <v>3.866450000000003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5513,22 +5367,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.88</v>
+        <v>3.888</v>
       </c>
       <c r="C142" t="n">
-        <v>3.88</v>
+        <v>3.888</v>
       </c>
       <c r="D142" t="n">
-        <v>3.88</v>
+        <v>3.888</v>
       </c>
       <c r="E142" t="n">
-        <v>3.88</v>
+        <v>3.888</v>
       </c>
       <c r="F142" t="n">
-        <v>93022.85520000001</v>
+        <v>8870</v>
       </c>
       <c r="G142" t="n">
-        <v>3.86711666666667</v>
+        <v>3.866850000000004</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5548,22 +5402,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.879</v>
+        <v>3.88</v>
       </c>
       <c r="C143" t="n">
-        <v>3.879</v>
+        <v>3.88</v>
       </c>
       <c r="D143" t="n">
-        <v>3.879</v>
+        <v>3.88</v>
       </c>
       <c r="E143" t="n">
-        <v>3.879</v>
+        <v>3.88</v>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>93022.85520000001</v>
       </c>
       <c r="G143" t="n">
-        <v>3.867433333333337</v>
+        <v>3.86711666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5583,22 +5437,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.878</v>
+        <v>3.879</v>
       </c>
       <c r="C144" t="n">
-        <v>3.878</v>
+        <v>3.879</v>
       </c>
       <c r="D144" t="n">
-        <v>3.878</v>
+        <v>3.879</v>
       </c>
       <c r="E144" t="n">
-        <v>3.878</v>
+        <v>3.879</v>
       </c>
       <c r="F144" t="n">
         <v>1000</v>
       </c>
       <c r="G144" t="n">
-        <v>3.867733333333336</v>
+        <v>3.867433333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5618,22 +5472,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.877</v>
+        <v>3.878</v>
       </c>
       <c r="C145" t="n">
-        <v>3.877</v>
+        <v>3.878</v>
       </c>
       <c r="D145" t="n">
-        <v>3.877</v>
+        <v>3.878</v>
       </c>
       <c r="E145" t="n">
-        <v>3.877</v>
+        <v>3.878</v>
       </c>
       <c r="F145" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>3.86801666666667</v>
+        <v>3.867733333333336</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5653,22 +5507,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.876</v>
+        <v>3.877</v>
       </c>
       <c r="C146" t="n">
-        <v>3.875</v>
+        <v>3.877</v>
       </c>
       <c r="D146" t="n">
-        <v>3.876</v>
+        <v>3.877</v>
       </c>
       <c r="E146" t="n">
-        <v>3.875</v>
+        <v>3.877</v>
       </c>
       <c r="F146" t="n">
-        <v>2257.8065</v>
+        <v>2000</v>
       </c>
       <c r="G146" t="n">
-        <v>3.86826666666667</v>
+        <v>3.86801666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5688,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.874</v>
+        <v>3.876</v>
       </c>
       <c r="C147" t="n">
-        <v>3.872</v>
+        <v>3.875</v>
       </c>
       <c r="D147" t="n">
-        <v>3.874</v>
+        <v>3.876</v>
       </c>
       <c r="E147" t="n">
-        <v>3.872</v>
+        <v>3.875</v>
       </c>
       <c r="F147" t="n">
-        <v>3258.0062</v>
+        <v>2257.8065</v>
       </c>
       <c r="G147" t="n">
-        <v>3.86846666666667</v>
+        <v>3.86826666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5723,22 +5577,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.871</v>
+        <v>3.874</v>
       </c>
       <c r="C148" t="n">
-        <v>3.869</v>
+        <v>3.872</v>
       </c>
       <c r="D148" t="n">
-        <v>3.871</v>
+        <v>3.874</v>
       </c>
       <c r="E148" t="n">
-        <v>3.869</v>
+        <v>3.872</v>
       </c>
       <c r="F148" t="n">
-        <v>13000</v>
+        <v>3258.0062</v>
       </c>
       <c r="G148" t="n">
-        <v>3.868616666666669</v>
+        <v>3.86846666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5758,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.868</v>
+        <v>3.871</v>
       </c>
       <c r="C149" t="n">
-        <v>3.868</v>
+        <v>3.869</v>
       </c>
       <c r="D149" t="n">
-        <v>3.868</v>
+        <v>3.871</v>
       </c>
       <c r="E149" t="n">
-        <v>3.868</v>
+        <v>3.869</v>
       </c>
       <c r="F149" t="n">
-        <v>1258.2731</v>
+        <v>13000</v>
       </c>
       <c r="G149" t="n">
-        <v>3.868750000000003</v>
+        <v>3.868616666666669</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5805,10 +5659,10 @@
         <v>3.868</v>
       </c>
       <c r="F150" t="n">
-        <v>30933.5178</v>
+        <v>1258.2731</v>
       </c>
       <c r="G150" t="n">
-        <v>3.868416666666669</v>
+        <v>3.868750000000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5828,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.867</v>
+        <v>3.868</v>
       </c>
       <c r="C151" t="n">
-        <v>3.866</v>
+        <v>3.868</v>
       </c>
       <c r="D151" t="n">
-        <v>3.867</v>
+        <v>3.868</v>
       </c>
       <c r="E151" t="n">
-        <v>3.866</v>
+        <v>3.868</v>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>30933.5178</v>
       </c>
       <c r="G151" t="n">
-        <v>3.868433333333336</v>
+        <v>3.868416666666669</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5863,22 +5717,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.865</v>
+        <v>3.867</v>
       </c>
       <c r="C152" t="n">
-        <v>3.86</v>
+        <v>3.866</v>
       </c>
       <c r="D152" t="n">
-        <v>3.865</v>
+        <v>3.867</v>
       </c>
       <c r="E152" t="n">
-        <v>3.86</v>
+        <v>3.866</v>
       </c>
       <c r="F152" t="n">
-        <v>6517.2817</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="n">
-        <v>3.868600000000002</v>
+        <v>3.868433333333336</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5898,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.859</v>
+        <v>3.865</v>
       </c>
       <c r="C153" t="n">
-        <v>3.858</v>
+        <v>3.86</v>
       </c>
       <c r="D153" t="n">
-        <v>3.859</v>
+        <v>3.865</v>
       </c>
       <c r="E153" t="n">
-        <v>3.858</v>
+        <v>3.86</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>6517.2817</v>
       </c>
       <c r="G153" t="n">
-        <v>3.868750000000003</v>
+        <v>3.868600000000002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5933,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.857</v>
+        <v>3.859</v>
       </c>
       <c r="C154" t="n">
-        <v>3.857</v>
+        <v>3.858</v>
       </c>
       <c r="D154" t="n">
-        <v>3.857</v>
+        <v>3.859</v>
       </c>
       <c r="E154" t="n">
-        <v>3.857</v>
+        <v>3.858</v>
       </c>
       <c r="F154" t="n">
-        <v>1259.0096</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>3.868900000000003</v>
+        <v>3.868750000000003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5963,6 +5817,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1259.0096</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3.868900000000003</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1138.4143</v>
       </c>
       <c r="G2" t="n">
+        <v>3.769933333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.850483333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>22333.3895</v>
       </c>
       <c r="G3" t="n">
+        <v>3.764199999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.848016666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>38130.4066</v>
       </c>
       <c r="G4" t="n">
+        <v>3.758466666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.845550000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,22 +567,21 @@
         <v>74759.87119999999</v>
       </c>
       <c r="G5" t="n">
+        <v>3.754399999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.843083333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -592,345 +605,383 @@
         <v>185856.3591</v>
       </c>
       <c r="G6" t="n">
+        <v>3.750466666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.840616666666669</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12393.8724</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.746799999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.837700000000003</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39954.9044</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.744799999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.834616666666669</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F9" t="n">
+        <v>266428.0191</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.741066666666666</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.831416666666669</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13454.6113</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.737333333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.829450000000002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13343.617021276</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.736333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.826516666666669</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="F12" t="n">
+        <v>642827.7775</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.732666666666666</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.823316666666669</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="F13" t="n">
+        <v>130739.6936</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.733799999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.820266666666669</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="F14" t="n">
+        <v>85539.5104</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.728999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.817033333333335</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.717</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12393.8724</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.837700000000003</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="F15" t="n">
+        <v>56012.404</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.729999999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.813833333333336</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="F8" t="n">
-        <v>39954.9044</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.834616666666669</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="F9" t="n">
-        <v>266428.0191</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.831416666666669</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13454.6113</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.829450000000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13343.617021276</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.826516666666669</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.718</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.718</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="F12" t="n">
-        <v>642827.7775</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.823316666666669</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.717</v>
-      </c>
-      <c r="F13" t="n">
-        <v>130739.6936</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.820266666666669</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="F14" t="n">
-        <v>85539.5104</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.817033333333335</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="F15" t="n">
-        <v>56012.404</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.813833333333336</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1005,21 @@
         <v>113351.4132</v>
       </c>
       <c r="G16" t="n">
+        <v>3.730133333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.81191666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1043,27 @@
         <v>568970.3567</v>
       </c>
       <c r="G17" t="n">
+        <v>3.732933333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.81066666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.747</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1087,25 @@
         <v>2216.6494</v>
       </c>
       <c r="G18" t="n">
+        <v>3.735799999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.80891666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1129,25 @@
         <v>266479.315213747</v>
       </c>
       <c r="G19" t="n">
+        <v>3.744733333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.808683333333337</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1171,25 @@
         <v>134</v>
       </c>
       <c r="G20" t="n">
+        <v>3.747133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.806850000000003</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1213,27 @@
         <v>131</v>
       </c>
       <c r="G21" t="n">
+        <v>3.754866666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.806850000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1257,25 @@
         <v>329.1205</v>
       </c>
       <c r="G22" t="n">
+        <v>3.757866666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.805650000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1299,25 @@
         <v>131</v>
       </c>
       <c r="G23" t="n">
+        <v>3.763599999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.806150000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1341,25 @@
         <v>312429.7723</v>
       </c>
       <c r="G24" t="n">
+        <v>3.770733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.807000000000003</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1383,25 @@
         <v>2669.827287179</v>
       </c>
       <c r="G25" t="n">
+        <v>3.781133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.808650000000003</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1425,25 @@
         <v>12393.8724</v>
       </c>
       <c r="G26" t="n">
+        <v>3.787133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.809483333333337</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1467,25 @@
         <v>129</v>
       </c>
       <c r="G27" t="n">
+        <v>3.799266666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.81031666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1509,25 @@
         <v>26520.8841</v>
       </c>
       <c r="G28" t="n">
+        <v>3.808133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.811150000000003</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1551,25 @@
         <v>41335.2163</v>
       </c>
       <c r="G29" t="n">
+        <v>3.816399999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.810983333333337</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1593,25 @@
         <v>44235.0154</v>
       </c>
       <c r="G30" t="n">
+        <v>3.827933333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.811633333333337</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1635,25 @@
         <v>62700.263</v>
       </c>
       <c r="G31" t="n">
+        <v>3.838066666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.813283333333337</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1677,25 @@
         <v>111000</v>
       </c>
       <c r="G32" t="n">
+        <v>3.845533333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.814833333333337</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1719,25 @@
         <v>9730</v>
       </c>
       <c r="G33" t="n">
+        <v>3.854333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.81621666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1761,25 @@
         <v>20186.7485</v>
       </c>
       <c r="G34" t="n">
+        <v>3.8604</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.817700000000003</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1803,25 @@
         <v>101004.0003</v>
       </c>
       <c r="G35" t="n">
+        <v>3.873066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.819200000000003</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1845,25 @@
         <v>100000</v>
       </c>
       <c r="G36" t="n">
+        <v>3.8804</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.819850000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1887,25 @@
         <v>50000</v>
       </c>
       <c r="G37" t="n">
+        <v>3.8904</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.819016666666669</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1929,25 @@
         <v>34230.2967</v>
       </c>
       <c r="G38" t="n">
+        <v>3.902933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.819483333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1971,25 @@
         <v>33934.9614</v>
       </c>
       <c r="G39" t="n">
+        <v>3.914266666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.819416666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2013,25 @@
         <v>397523.6848</v>
       </c>
       <c r="G40" t="n">
+        <v>3.922333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.820300000000002</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2055,25 @@
         <v>192717.617</v>
       </c>
       <c r="G41" t="n">
+        <v>3.930333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.819633333333336</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2097,25 @@
         <v>341773.2651</v>
       </c>
       <c r="G42" t="n">
+        <v>3.930333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.818966666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2139,25 @@
         <v>30527.86</v>
       </c>
       <c r="G43" t="n">
+        <v>3.933666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.820450000000002</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2181,25 @@
         <v>48010.1384</v>
       </c>
       <c r="G44" t="n">
+        <v>3.936999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.820200000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2223,25 @@
         <v>160</v>
       </c>
       <c r="G45" t="n">
+        <v>3.940999999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.820750000000003</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2265,25 @@
         <v>500</v>
       </c>
       <c r="G46" t="n">
+        <v>3.940399999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.820550000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2307,25 @@
         <v>116196.3307</v>
       </c>
       <c r="G47" t="n">
+        <v>3.938333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.821683333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2349,25 @@
         <v>15666.3554</v>
       </c>
       <c r="G48" t="n">
+        <v>3.935066666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.822350000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2391,25 @@
         <v>260.8356</v>
       </c>
       <c r="G49" t="n">
+        <v>3.927799999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.822850000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2433,25 @@
         <v>124653.8953</v>
       </c>
       <c r="G50" t="n">
+        <v>3.919266666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.823466666666669</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,22 +2475,25 @@
         <v>104262.0765</v>
       </c>
       <c r="G51" t="n">
+        <v>3.915933333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.825416666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,26 +2517,25 @@
         <v>255</v>
       </c>
       <c r="G52" t="n">
+        <v>3.915866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.827733333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2261,24 +2559,25 @@
         <v>574.1301999999999</v>
       </c>
       <c r="G53" t="n">
+        <v>3.907799999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.829783333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,18 +2601,25 @@
         <v>666.8026</v>
       </c>
       <c r="G54" t="n">
+        <v>3.899533333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.831400000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,18 +2643,25 @@
         <v>47075.6049</v>
       </c>
       <c r="G55" t="n">
+        <v>3.889066666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.832466666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,18 +2685,25 @@
         <v>87000</v>
       </c>
       <c r="G56" t="n">
+        <v>3.881999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.833950000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2727,25 @@
         <v>6403.1604</v>
       </c>
       <c r="G57" t="n">
+        <v>3.885333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.836900000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,18 +2769,25 @@
         <v>984.5817</v>
       </c>
       <c r="G58" t="n">
+        <v>3.888666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.841066666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2811,25 @@
         <v>18190</v>
       </c>
       <c r="G59" t="n">
+        <v>3.892666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.843766666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,20 +2853,25 @@
         <v>80000</v>
       </c>
       <c r="G60" t="n">
+        <v>3.891266666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.84755</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2547,18 +2893,21 @@
         <v>1440.2391</v>
       </c>
       <c r="G61" t="n">
+        <v>3.893799999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.8506</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +2931,21 @@
         <v>173872.7419</v>
       </c>
       <c r="G62" t="n">
+        <v>3.892999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.85245</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +2969,21 @@
         <v>45536.3313</v>
       </c>
       <c r="G63" t="n">
+        <v>3.894066666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.854816666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +3007,21 @@
         <v>687883.662836781</v>
       </c>
       <c r="G64" t="n">
+        <v>3.906799999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.859933333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +3045,21 @@
         <v>71006.5897</v>
       </c>
       <c r="G65" t="n">
+        <v>3.920066666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.864883333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +3083,21 @@
         <v>32810</v>
       </c>
       <c r="G66" t="n">
+        <v>3.9274</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.86965</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +3121,21 @@
         <v>47910.1167</v>
       </c>
       <c r="G67" t="n">
+        <v>3.931466666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.8739</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3159,21 @@
         <v>5890.5665</v>
       </c>
       <c r="G68" t="n">
+        <v>3.938333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.878166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3197,21 @@
         <v>51519.25</v>
       </c>
       <c r="G69" t="n">
+        <v>3.9452</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.882433333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3235,21 @@
         <v>72120</v>
       </c>
       <c r="G70" t="n">
+        <v>3.950933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.885866666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3273,21 @@
         <v>26570.777</v>
       </c>
       <c r="G71" t="n">
+        <v>3.954933333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.8886</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3311,21 @@
         <v>10875.0478</v>
       </c>
       <c r="G72" t="n">
+        <v>3.954933333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.892466666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3349,21 @@
         <v>87792.6856</v>
       </c>
       <c r="G73" t="n">
+        <v>3.9532</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.895916666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3387,21 @@
         <v>902.0141</v>
       </c>
       <c r="G74" t="n">
+        <v>3.9508</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.899216666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3425,21 @@
         <v>77076.7136</v>
       </c>
       <c r="G75" t="n">
+        <v>3.9508</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.902749999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3463,21 @@
         <v>727.9865</v>
       </c>
       <c r="G76" t="n">
+        <v>3.9508</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.905766666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3501,21 @@
         <v>100000</v>
       </c>
       <c r="G77" t="n">
+        <v>3.954466666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.907833333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3539,21 @@
         <v>104444.1974</v>
       </c>
       <c r="G78" t="n">
+        <v>3.9554</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.909716666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3577,21 @@
         <v>2588.6616</v>
       </c>
       <c r="G79" t="n">
+        <v>3.944666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.909916666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3615,21 @@
         <v>406724.5493</v>
       </c>
       <c r="G80" t="n">
+        <v>3.934599999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.911749999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3653,21 @@
         <v>279974.5942</v>
       </c>
       <c r="G81" t="n">
+        <v>3.925266666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.912249999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3691,21 @@
         <v>111043.9578</v>
       </c>
       <c r="G82" t="n">
+        <v>3.916199999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.913483333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3729,21 @@
         <v>301484.7672</v>
       </c>
       <c r="G83" t="n">
+        <v>3.907133333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.914049999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3767,21 @@
         <v>141900.0213</v>
       </c>
       <c r="G84" t="n">
+        <v>3.897799999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.9142</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3805,21 @@
         <v>143447.3842</v>
       </c>
       <c r="G85" t="n">
+        <v>3.891799999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.913533333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3843,21 @@
         <v>200000</v>
       </c>
       <c r="G86" t="n">
+        <v>3.887533333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.9137</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3881,21 @@
         <v>43448.7216</v>
       </c>
       <c r="G87" t="n">
+        <v>3.881533333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.913033333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +3919,21 @@
         <v>6551.2784</v>
       </c>
       <c r="G88" t="n">
+        <v>3.877266666666665</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.913200000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +3957,21 @@
         <v>91676.83779999999</v>
       </c>
       <c r="G89" t="n">
+        <v>3.873666666666665</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.913533333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +3995,21 @@
         <v>8323.162200000001</v>
       </c>
       <c r="G90" t="n">
+        <v>3.869133333333332</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.913050000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +4033,21 @@
         <v>60460.1498</v>
       </c>
       <c r="G91" t="n">
+        <v>3.866466666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.912866666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4071,21 @@
         <v>13620</v>
       </c>
       <c r="G92" t="n">
+        <v>3.863399999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.912300000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4109,21 @@
         <v>74094.1492</v>
       </c>
       <c r="G93" t="n">
+        <v>3.862066666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.911650000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4147,21 @@
         <v>2889.6782</v>
       </c>
       <c r="G94" t="n">
+        <v>3.861333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.910150000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4185,21 @@
         <v>850</v>
       </c>
       <c r="G95" t="n">
+        <v>3.860533333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.908616666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4223,21 @@
         <v>300</v>
       </c>
       <c r="G96" t="n">
+        <v>3.859733333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.907083333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4261,21 @@
         <v>700</v>
       </c>
       <c r="G97" t="n">
+        <v>3.8586</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.905533333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4299,21 @@
         <v>1400</v>
       </c>
       <c r="G98" t="n">
+        <v>3.857333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.902650000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4337,21 @@
         <v>700</v>
       </c>
       <c r="G99" t="n">
+        <v>3.856266666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.899700000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4375,21 @@
         <v>700</v>
       </c>
       <c r="G100" t="n">
+        <v>3.855133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.896733333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4413,21 @@
         <v>700</v>
       </c>
       <c r="G101" t="n">
+        <v>3.853933333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.894600000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4451,21 @@
         <v>2100</v>
       </c>
       <c r="G102" t="n">
+        <v>3.852533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.893583333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4489,21 @@
         <v>2800</v>
       </c>
       <c r="G103" t="n">
+        <v>3.850866666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.892500000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4527,21 @@
         <v>4065.3056</v>
       </c>
       <c r="G104" t="n">
+        <v>3.849066666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.891550000000002</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4565,21 @@
         <v>700</v>
       </c>
       <c r="G105" t="n">
+        <v>3.8472</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.889600000000002</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4603,21 @@
         <v>175746.3698</v>
       </c>
       <c r="G106" t="n">
+        <v>3.843133333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.888550000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4641,21 @@
         <v>287838.032</v>
       </c>
       <c r="G107" t="n">
+        <v>3.840866666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.887933333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4679,21 @@
         <v>839403.876200702</v>
       </c>
       <c r="G108" t="n">
+        <v>3.839333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.887716666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4717,21 @@
         <v>8820.3218</v>
       </c>
       <c r="G109" t="n">
+        <v>3.838133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.887733333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4755,21 @@
         <v>140307.0609</v>
       </c>
       <c r="G110" t="n">
+        <v>3.837666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.888216666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4793,21 @@
         <v>103750.8182</v>
       </c>
       <c r="G111" t="n">
+        <v>3.837200000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.887400000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4831,21 @@
         <v>100734.1734</v>
       </c>
       <c r="G112" t="n">
+        <v>3.836800000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.885766666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4869,21 @@
         <v>553257.2394</v>
       </c>
       <c r="G113" t="n">
+        <v>3.836533333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.884833333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +4907,21 @@
         <v>85815.865399298</v>
       </c>
       <c r="G114" t="n">
+        <v>3.836333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.883900000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +4945,21 @@
         <v>1000</v>
       </c>
       <c r="G115" t="n">
+        <v>3.842133333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.885000000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +4983,21 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
+        <v>3.842666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.884766666666669</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5021,21 @@
         <v>1000</v>
       </c>
       <c r="G117" t="n">
+        <v>3.843333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.883083333333336</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5059,21 @@
         <v>5256.6816</v>
       </c>
       <c r="G118" t="n">
+        <v>3.844333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.881416666666669</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5097,21 @@
         <v>1000</v>
       </c>
       <c r="G119" t="n">
+        <v>3.845333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.879716666666669</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5135,21 @@
         <v>1000</v>
       </c>
       <c r="G120" t="n">
+        <v>3.846333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.87836666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5173,21 @@
         <v>1000</v>
       </c>
       <c r="G121" t="n">
+        <v>3.847600000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.877000000000003</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5211,21 @@
         <v>5015.7264</v>
       </c>
       <c r="G122" t="n">
+        <v>3.848600000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.876833333333336</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5249,21 @@
         <v>416581.2768</v>
       </c>
       <c r="G123" t="n">
+        <v>3.850133333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.876733333333336</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5287,21 @@
         <v>127</v>
       </c>
       <c r="G124" t="n">
+        <v>3.857400000000001</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.875383333333337</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5325,21 @@
         <v>127</v>
       </c>
       <c r="G125" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.874200000000003</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5363,21 @@
         <v>17137.9937</v>
       </c>
       <c r="G126" t="n">
+        <v>3.864666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.87171666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5401,21 @@
         <v>80306.36810000001</v>
       </c>
       <c r="G127" t="n">
+        <v>3.865266666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.86921666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5439,21 @@
         <v>346.398</v>
       </c>
       <c r="G128" t="n">
+        <v>3.866266666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.86681666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5477,21 @@
         <v>15271.3669</v>
       </c>
       <c r="G129" t="n">
+        <v>3.867266666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.86441666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5515,21 @@
         <v>3824.7892</v>
       </c>
       <c r="G130" t="n">
+        <v>3.867933333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.864250000000003</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5553,21 @@
         <v>2000</v>
       </c>
       <c r="G131" t="n">
+        <v>3.874466666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.864650000000003</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5591,21 @@
         <v>774665.6723</v>
       </c>
       <c r="G132" t="n">
+        <v>3.881066666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.86461666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5629,21 @@
         <v>130000</v>
       </c>
       <c r="G133" t="n">
+        <v>3.881066666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.863383333333337</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5667,21 @@
         <v>1000</v>
       </c>
       <c r="G134" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.86376666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +5705,21 @@
         <v>14196.5659</v>
       </c>
       <c r="G135" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.86391666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +5743,21 @@
         <v>44270.714826285</v>
       </c>
       <c r="G136" t="n">
+        <v>3.899866666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.864266666666671</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +5781,21 @@
         <v>15190</v>
       </c>
       <c r="G137" t="n">
+        <v>3.902733333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.863900000000004</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +5819,21 @@
         <v>37320</v>
       </c>
       <c r="G138" t="n">
+        <v>3.905266666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.864200000000004</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +5857,21 @@
         <v>127</v>
       </c>
       <c r="G139" t="n">
+        <v>3.905200000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.865516666666671</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +5895,21 @@
         <v>17620</v>
       </c>
       <c r="G140" t="n">
+        <v>3.901733333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.865983333333337</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +5933,21 @@
         <v>8870</v>
       </c>
       <c r="G141" t="n">
+        <v>3.904200000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.866450000000003</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +5971,21 @@
         <v>8870</v>
       </c>
       <c r="G142" t="n">
+        <v>3.906733333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.866850000000004</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6009,21 @@
         <v>93022.85520000001</v>
       </c>
       <c r="G143" t="n">
+        <v>3.908333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.86711666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6047,21 @@
         <v>1000</v>
       </c>
       <c r="G144" t="n">
+        <v>3.909866666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.867433333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6085,21 @@
         <v>1000</v>
       </c>
       <c r="G145" t="n">
+        <v>3.905733333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.867733333333336</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6123,21 @@
         <v>2000</v>
       </c>
       <c r="G146" t="n">
+        <v>3.901000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.86801666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6161,21 @@
         <v>2257.8065</v>
       </c>
       <c r="G147" t="n">
+        <v>3.896133333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.86826666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6199,21 @@
         <v>3258.0062</v>
       </c>
       <c r="G148" t="n">
+        <v>3.8976</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.86846666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6237,21 @@
         <v>13000</v>
       </c>
       <c r="G149" t="n">
+        <v>3.893066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.868616666666669</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6275,21 @@
         <v>1258.2731</v>
       </c>
       <c r="G150" t="n">
+        <v>3.888466666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.868750000000003</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6313,21 @@
         <v>30933.5178</v>
       </c>
       <c r="G151" t="n">
+        <v>3.883066666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.868416666666669</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6351,21 @@
         <v>2000</v>
       </c>
       <c r="G152" t="n">
+        <v>3.881533333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.868433333333336</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +6389,21 @@
         <v>6517.2817</v>
       </c>
       <c r="G153" t="n">
+        <v>3.879666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.868600000000002</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +6427,21 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
+        <v>3.874266666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.868750000000003</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +6465,401 @@
         <v>1259.0096</v>
       </c>
       <c r="G155" t="n">
+        <v>3.872200000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.868900000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F156" t="n">
+        <v>349555.9416</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3.867066666666668</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.868283333333336</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F157" t="n">
+        <v>350852.622197925</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.864933333333334</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.868433333333336</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.812</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F158" t="n">
+        <v>137167.2625</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.860333333333335</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.867866666666669</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6441.1642</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.855800000000001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.867316666666669</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="F160" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3.851333333333335</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.866783333333336</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.811</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="F161" t="n">
+        <v>170173.688086605</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3.849200000000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.866833333333336</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3.843200000000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.865933333333336</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="F163" t="n">
+        <v>26614.4091</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3.837400000000001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>3.865100000000003</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.784</v>
+      </c>
+      <c r="F164" t="n">
+        <v>45488.7814</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.831733333333334</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.864283333333336</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="F165" t="n">
+        <v>35971.7086</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.826266666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.863516666666669</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.806</v>
+        <v>3.716</v>
       </c>
       <c r="C2" t="n">
-        <v>3.806</v>
+        <v>3.716</v>
       </c>
       <c r="D2" t="n">
-        <v>3.806</v>
+        <v>3.716</v>
       </c>
       <c r="E2" t="n">
-        <v>3.806</v>
+        <v>3.716</v>
       </c>
       <c r="F2" t="n">
-        <v>63173.4375</v>
+        <v>56012.404</v>
       </c>
       <c r="G2" t="n">
-        <v>-9746029.802999999</v>
+        <v>-17430450.39658421</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,157 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="C3" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="D3" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="E3" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="F3" t="n">
-        <v>130</v>
+        <v>113351.4132</v>
       </c>
       <c r="G3" t="n">
-        <v>-9745899.802999999</v>
+        <v>-17317098.98338421</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.716</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="C4" t="n">
-        <v>3.85</v>
+        <v>3.787</v>
       </c>
       <c r="D4" t="n">
-        <v>3.85</v>
+        <v>3.797</v>
       </c>
       <c r="E4" t="n">
-        <v>3.85</v>
+        <v>3.747</v>
       </c>
       <c r="F4" t="n">
-        <v>69122.837</v>
+        <v>568970.3567</v>
       </c>
       <c r="G4" t="n">
-        <v>-9745899.802999999</v>
+        <v>-16748128.62668421</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>3.747</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.862</v>
+        <v>3.757</v>
       </c>
       <c r="C5" t="n">
-        <v>3.901</v>
+        <v>3.757</v>
       </c>
       <c r="D5" t="n">
-        <v>3.901</v>
+        <v>3.757</v>
       </c>
       <c r="E5" t="n">
-        <v>3.862</v>
+        <v>3.757</v>
       </c>
       <c r="F5" t="n">
-        <v>197257.6586</v>
+        <v>2216.6494</v>
       </c>
       <c r="G5" t="n">
-        <v>-9548642.144399999</v>
+        <v>-16750345.27608421</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>3.787</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.899</v>
+        <v>3.787</v>
       </c>
       <c r="C6" t="n">
-        <v>3.99</v>
+        <v>3.848</v>
       </c>
       <c r="D6" t="n">
-        <v>3.99</v>
+        <v>3.848</v>
       </c>
       <c r="E6" t="n">
-        <v>3.899</v>
+        <v>3.787</v>
       </c>
       <c r="F6" t="n">
-        <v>726289.1406</v>
+        <v>266479.315213747</v>
       </c>
       <c r="G6" t="n">
-        <v>-8822353.003799999</v>
+        <v>-16483865.96087047</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +631,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="C7" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="D7" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="E7" t="n">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="F7" t="n">
-        <v>47601.2808</v>
+        <v>134</v>
       </c>
       <c r="G7" t="n">
-        <v>-8822353.003799999</v>
+        <v>-16483999.96087047</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +667,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.025</v>
+        <v>3.83</v>
       </c>
       <c r="C8" t="n">
-        <v>4.025</v>
+        <v>3.83</v>
       </c>
       <c r="D8" t="n">
-        <v>4.025</v>
+        <v>3.83</v>
       </c>
       <c r="E8" t="n">
-        <v>4.025</v>
+        <v>3.83</v>
       </c>
       <c r="F8" t="n">
-        <v>11034.9715</v>
+        <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>-8811318.032299999</v>
+        <v>-16483868.96087047</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +703,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.978</v>
+        <v>3.79</v>
       </c>
       <c r="C9" t="n">
-        <v>3.968</v>
+        <v>3.79</v>
       </c>
       <c r="D9" t="n">
-        <v>3.978</v>
+        <v>3.79</v>
       </c>
       <c r="E9" t="n">
-        <v>3.968</v>
+        <v>3.79</v>
       </c>
       <c r="F9" t="n">
-        <v>181477.6376</v>
+        <v>329.1205</v>
       </c>
       <c r="G9" t="n">
-        <v>-8992795.669899998</v>
+        <v>-16484198.08137047</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +739,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01</v>
+        <v>3.83</v>
       </c>
       <c r="C10" t="n">
-        <v>4.01</v>
+        <v>3.83</v>
       </c>
       <c r="D10" t="n">
-        <v>4.01</v>
+        <v>3.83</v>
       </c>
       <c r="E10" t="n">
-        <v>4.01</v>
+        <v>3.83</v>
       </c>
       <c r="F10" t="n">
-        <v>133.7849</v>
+        <v>131</v>
       </c>
       <c r="G10" t="n">
-        <v>-8992661.884999998</v>
+        <v>-16484067.08137047</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +775,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.97</v>
+        <v>3.83</v>
       </c>
       <c r="C11" t="n">
-        <v>3.94</v>
+        <v>3.851</v>
       </c>
       <c r="D11" t="n">
-        <v>3.97</v>
+        <v>3.851</v>
       </c>
       <c r="E11" t="n">
-        <v>3.94</v>
+        <v>3.83</v>
       </c>
       <c r="F11" t="n">
-        <v>15354.8206</v>
+        <v>312429.7723</v>
       </c>
       <c r="G11" t="n">
-        <v>-9008016.705599997</v>
+        <v>-16171637.30907047</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +811,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.934</v>
+        <v>3.86</v>
       </c>
       <c r="C12" t="n">
-        <v>3.811</v>
+        <v>3.9</v>
       </c>
       <c r="D12" t="n">
-        <v>3.934</v>
+        <v>3.9</v>
       </c>
       <c r="E12" t="n">
-        <v>3.811</v>
+        <v>3.86</v>
       </c>
       <c r="F12" t="n">
-        <v>44053.6814</v>
+        <v>2669.827287179</v>
       </c>
       <c r="G12" t="n">
-        <v>-9052070.386999996</v>
+        <v>-16168967.48178329</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +847,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.813</v>
+        <v>3.85</v>
       </c>
       <c r="C13" t="n">
-        <v>3.905</v>
+        <v>3.85</v>
       </c>
       <c r="D13" t="n">
-        <v>3.905</v>
+        <v>3.85</v>
       </c>
       <c r="E13" t="n">
-        <v>3.813</v>
+        <v>3.85</v>
       </c>
       <c r="F13" t="n">
-        <v>3978.2937</v>
+        <v>12393.8724</v>
       </c>
       <c r="G13" t="n">
-        <v>-9048092.093299996</v>
+        <v>-16181361.35418329</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +883,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.916</v>
+        <v>3.9</v>
       </c>
       <c r="C14" t="n">
-        <v>3.916</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="n">
-        <v>3.916</v>
+        <v>3.9</v>
       </c>
       <c r="E14" t="n">
-        <v>3.916</v>
+        <v>3.9</v>
       </c>
       <c r="F14" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G14" t="n">
-        <v>-9047964.093299996</v>
+        <v>-16181232.35418329</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +919,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.902</v>
+        <v>3.85</v>
       </c>
       <c r="C15" t="n">
-        <v>3.902</v>
+        <v>3.85</v>
       </c>
       <c r="D15" t="n">
-        <v>3.902</v>
+        <v>3.85</v>
       </c>
       <c r="E15" t="n">
-        <v>3.902</v>
+        <v>3.85</v>
       </c>
       <c r="F15" t="n">
-        <v>55000</v>
+        <v>26520.8841</v>
       </c>
       <c r="G15" t="n">
-        <v>-9102964.093299996</v>
+        <v>-16207753.23828329</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +955,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.873</v>
+        <v>3.84</v>
       </c>
       <c r="C16" t="n">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
       <c r="D16" t="n">
-        <v>3.873</v>
+        <v>3.84</v>
       </c>
       <c r="E16" t="n">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
       <c r="F16" t="n">
-        <v>2759849.0289</v>
+        <v>41335.2163</v>
       </c>
       <c r="G16" t="n">
-        <v>-11862813.1222</v>
+        <v>-16249088.45458329</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +991,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="C17" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="D17" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="E17" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="F17" t="n">
-        <v>2119.4896</v>
+        <v>44235.0154</v>
       </c>
       <c r="G17" t="n">
-        <v>-11862813.1222</v>
+        <v>-16204853.43918329</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1027,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="C18" t="n">
-        <v>3.8</v>
+        <v>3.899</v>
       </c>
       <c r="D18" t="n">
-        <v>3.8</v>
+        <v>3.899</v>
       </c>
       <c r="E18" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="F18" t="n">
-        <v>185856.3591</v>
+        <v>62700.263</v>
       </c>
       <c r="G18" t="n">
-        <v>-11862813.1222</v>
+        <v>-16142153.17618329</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1063,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.8</v>
+        <v>3.889</v>
       </c>
       <c r="C19" t="n">
-        <v>3.775</v>
+        <v>3.899</v>
       </c>
       <c r="D19" t="n">
-        <v>3.8</v>
+        <v>3.899</v>
       </c>
       <c r="E19" t="n">
-        <v>3.775</v>
+        <v>3.889</v>
       </c>
       <c r="F19" t="n">
-        <v>204652.5633</v>
+        <v>111000</v>
       </c>
       <c r="G19" t="n">
-        <v>-12067465.6855</v>
+        <v>-16142153.17618329</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1099,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.773</v>
+        <v>3.889</v>
       </c>
       <c r="C20" t="n">
-        <v>3.773</v>
+        <v>3.889</v>
       </c>
       <c r="D20" t="n">
-        <v>3.773</v>
+        <v>3.889</v>
       </c>
       <c r="E20" t="n">
-        <v>3.773</v>
+        <v>3.889</v>
       </c>
       <c r="F20" t="n">
-        <v>192170.3366</v>
+        <v>9730</v>
       </c>
       <c r="G20" t="n">
-        <v>-12259636.0221</v>
+        <v>-16151883.17618329</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1135,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="C21" t="n">
-        <v>3.8</v>
+        <v>3.939</v>
       </c>
       <c r="D21" t="n">
-        <v>3.8</v>
+        <v>3.939</v>
       </c>
       <c r="E21" t="n">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="F21" t="n">
-        <v>132</v>
+        <v>20186.7485</v>
       </c>
       <c r="G21" t="n">
-        <v>-12259504.0221</v>
+        <v>-16131696.42768329</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1171,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.774</v>
+        <v>3.939</v>
       </c>
       <c r="C22" t="n">
-        <v>3.774</v>
+        <v>3.94</v>
       </c>
       <c r="D22" t="n">
-        <v>3.774</v>
+        <v>3.94</v>
       </c>
       <c r="E22" t="n">
-        <v>3.774</v>
+        <v>3.939</v>
       </c>
       <c r="F22" t="n">
-        <v>56658.4093</v>
+        <v>101004.0003</v>
       </c>
       <c r="G22" t="n">
-        <v>-12316162.4314</v>
+        <v>-16030692.42738329</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1207,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="C23" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="D23" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="E23" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="F23" t="n">
-        <v>70743.24709999999</v>
+        <v>100000</v>
       </c>
       <c r="G23" t="n">
-        <v>-12245419.1843</v>
+        <v>-16030692.42738329</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1243,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="C24" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="D24" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="E24" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="F24" t="n">
-        <v>632.6394</v>
+        <v>50000</v>
       </c>
       <c r="G24" t="n">
-        <v>-12245419.1843</v>
+        <v>-16030692.42738329</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1279,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.775</v>
+        <v>3.94</v>
       </c>
       <c r="C25" t="n">
-        <v>3.775</v>
+        <v>4.018</v>
       </c>
       <c r="D25" t="n">
-        <v>3.775</v>
+        <v>4.018</v>
       </c>
       <c r="E25" t="n">
-        <v>3.775</v>
+        <v>3.94</v>
       </c>
       <c r="F25" t="n">
-        <v>2995.5754</v>
+        <v>34230.2967</v>
       </c>
       <c r="G25" t="n">
-        <v>-12248414.7597</v>
+        <v>-15996462.13068329</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1315,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.775</v>
+        <v>4.018</v>
       </c>
       <c r="C26" t="n">
-        <v>3.773</v>
+        <v>4.021</v>
       </c>
       <c r="D26" t="n">
-        <v>3.775</v>
+        <v>4.021</v>
       </c>
       <c r="E26" t="n">
-        <v>3.773</v>
+        <v>4.018</v>
       </c>
       <c r="F26" t="n">
-        <v>389355.1985</v>
+        <v>33934.9614</v>
       </c>
       <c r="G26" t="n">
-        <v>-12637769.9582</v>
+        <v>-15962527.16928329</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1351,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.773</v>
+        <v>4.02</v>
       </c>
       <c r="C27" t="n">
-        <v>3.7</v>
+        <v>4.021</v>
       </c>
       <c r="D27" t="n">
-        <v>3.773</v>
+        <v>4.021</v>
       </c>
       <c r="E27" t="n">
-        <v>3.699</v>
+        <v>4.02</v>
       </c>
       <c r="F27" t="n">
-        <v>3635751.9947</v>
+        <v>397523.6848</v>
       </c>
       <c r="G27" t="n">
-        <v>-16273521.9529</v>
+        <v>-15962527.16928329</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1387,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.788</v>
+        <v>3.97</v>
       </c>
       <c r="C28" t="n">
-        <v>3.788</v>
+        <v>3.97</v>
       </c>
       <c r="D28" t="n">
-        <v>3.788</v>
+        <v>3.97</v>
       </c>
       <c r="E28" t="n">
-        <v>3.788</v>
+        <v>3.97</v>
       </c>
       <c r="F28" t="n">
-        <v>35762.671594508</v>
+        <v>192717.617</v>
       </c>
       <c r="G28" t="n">
-        <v>-16237759.28130549</v>
+        <v>-16155244.78628329</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1423,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.731</v>
+        <v>3.96</v>
       </c>
       <c r="C29" t="n">
-        <v>3.701</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="n">
-        <v>3.731</v>
+        <v>3.96</v>
       </c>
       <c r="E29" t="n">
-        <v>3.701</v>
+        <v>3.9</v>
       </c>
       <c r="F29" t="n">
-        <v>352697.8318</v>
+        <v>341773.2651</v>
       </c>
       <c r="G29" t="n">
-        <v>-16590457.11310549</v>
+        <v>-16497018.05138329</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1459,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.745</v>
+        <v>3.9</v>
       </c>
       <c r="C30" t="n">
-        <v>3.745</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="n">
-        <v>3.745</v>
+        <v>3.9</v>
       </c>
       <c r="E30" t="n">
-        <v>3.745</v>
+        <v>3.9</v>
       </c>
       <c r="F30" t="n">
-        <v>55664.5025</v>
+        <v>30527.86</v>
       </c>
       <c r="G30" t="n">
-        <v>-16534792.61060549</v>
+        <v>-16497018.05138329</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1495,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.745</v>
+        <v>3.89</v>
       </c>
       <c r="C31" t="n">
-        <v>3.745</v>
+        <v>3.89</v>
       </c>
       <c r="D31" t="n">
-        <v>3.745</v>
+        <v>3.89</v>
       </c>
       <c r="E31" t="n">
-        <v>3.745</v>
+        <v>3.89</v>
       </c>
       <c r="F31" t="n">
-        <v>1138.4143</v>
+        <v>48010.1384</v>
       </c>
       <c r="G31" t="n">
-        <v>-16534792.61060549</v>
+        <v>-16545028.18978329</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1531,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.714</v>
+        <v>3.949</v>
       </c>
       <c r="C32" t="n">
-        <v>3.714</v>
+        <v>3.949</v>
       </c>
       <c r="D32" t="n">
-        <v>3.714</v>
+        <v>3.949</v>
       </c>
       <c r="E32" t="n">
-        <v>3.714</v>
+        <v>3.949</v>
       </c>
       <c r="F32" t="n">
-        <v>22333.3895</v>
+        <v>160</v>
       </c>
       <c r="G32" t="n">
-        <v>-16557126.00010549</v>
+        <v>-16544868.18978329</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1567,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="C33" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="D33" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="E33" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="F33" t="n">
-        <v>38130.4066</v>
+        <v>500</v>
       </c>
       <c r="G33" t="n">
-        <v>-16557126.00010549</v>
+        <v>-16545368.18978329</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1603,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="C34" t="n">
-        <v>3.714</v>
+        <v>3.868</v>
       </c>
       <c r="D34" t="n">
-        <v>3.714</v>
+        <v>3.89</v>
       </c>
       <c r="E34" t="n">
-        <v>3.714</v>
+        <v>3.868</v>
       </c>
       <c r="F34" t="n">
-        <v>74759.87119999999</v>
+        <v>116196.3307</v>
       </c>
       <c r="G34" t="n">
-        <v>-16557126.00010549</v>
+        <v>-16661564.52048329</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1639,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.714</v>
+        <v>3.86</v>
       </c>
       <c r="C35" t="n">
-        <v>3.714</v>
+        <v>3.84</v>
       </c>
       <c r="D35" t="n">
-        <v>3.714</v>
+        <v>3.86</v>
       </c>
       <c r="E35" t="n">
-        <v>3.714</v>
+        <v>3.84</v>
       </c>
       <c r="F35" t="n">
-        <v>185856.3591</v>
+        <v>15666.3554</v>
       </c>
       <c r="G35" t="n">
-        <v>-16557126.00010549</v>
+        <v>-16677230.87588329</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,67 +1675,65 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.745</v>
+        <v>3.83</v>
       </c>
       <c r="C36" t="n">
-        <v>3.745</v>
+        <v>3.83</v>
       </c>
       <c r="D36" t="n">
-        <v>3.745</v>
+        <v>3.83</v>
       </c>
       <c r="E36" t="n">
-        <v>3.745</v>
+        <v>3.83</v>
       </c>
       <c r="F36" t="n">
-        <v>12393.8724</v>
+        <v>260.8356</v>
       </c>
       <c r="G36" t="n">
-        <v>-16544732.12770549</v>
+        <v>-16677491.71148329</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.714</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.744</v>
+        <v>3.823</v>
       </c>
       <c r="C37" t="n">
-        <v>3.744</v>
+        <v>3.812</v>
       </c>
       <c r="D37" t="n">
-        <v>3.744</v>
+        <v>3.823</v>
       </c>
       <c r="E37" t="n">
-        <v>3.744</v>
+        <v>3.812</v>
       </c>
       <c r="F37" t="n">
-        <v>39954.9044</v>
+        <v>124653.8953</v>
       </c>
       <c r="G37" t="n">
-        <v>-16584687.03210549</v>
+        <v>-16802145.60678329</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1686,39 +1742,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.744</v>
+        <v>3.829</v>
       </c>
       <c r="C38" t="n">
-        <v>3.744</v>
+        <v>3.89</v>
       </c>
       <c r="D38" t="n">
-        <v>3.744</v>
+        <v>3.89</v>
       </c>
       <c r="E38" t="n">
-        <v>3.744</v>
+        <v>3.829</v>
       </c>
       <c r="F38" t="n">
-        <v>266428.0191</v>
+        <v>104262.0765</v>
       </c>
       <c r="G38" t="n">
-        <v>-16584687.03210549</v>
+        <v>-16697883.53028329</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1727,39 +1778,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.744</v>
+        <v>3.918</v>
       </c>
       <c r="C39" t="n">
-        <v>3.744</v>
+        <v>3.939</v>
       </c>
       <c r="D39" t="n">
-        <v>3.744</v>
+        <v>3.939</v>
       </c>
       <c r="E39" t="n">
-        <v>3.744</v>
+        <v>3.918</v>
       </c>
       <c r="F39" t="n">
-        <v>13454.6113</v>
+        <v>255</v>
       </c>
       <c r="G39" t="n">
-        <v>-16584687.03210549</v>
+        <v>-16697628.53028329</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1773,28 +1819,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.76</v>
+        <v>3.897</v>
       </c>
       <c r="C40" t="n">
-        <v>3.76</v>
+        <v>3.897</v>
       </c>
       <c r="D40" t="n">
-        <v>3.76</v>
+        <v>3.897</v>
       </c>
       <c r="E40" t="n">
-        <v>3.76</v>
+        <v>3.897</v>
       </c>
       <c r="F40" t="n">
-        <v>13343.617021276</v>
+        <v>574.1301999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-16571343.41508421</v>
+        <v>-16698202.66048329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,28 +1855,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.717</v>
+        <v>3.897</v>
       </c>
       <c r="C41" t="n">
-        <v>3.718</v>
+        <v>3.897</v>
       </c>
       <c r="D41" t="n">
-        <v>3.718</v>
+        <v>3.897</v>
       </c>
       <c r="E41" t="n">
-        <v>3.717</v>
+        <v>3.897</v>
       </c>
       <c r="F41" t="n">
-        <v>642827.7775</v>
+        <v>666.8026</v>
       </c>
       <c r="G41" t="n">
-        <v>-17214171.19258421</v>
+        <v>-16698202.66048329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,28 +1891,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.717</v>
+        <v>3.864</v>
       </c>
       <c r="C42" t="n">
-        <v>3.717</v>
+        <v>3.864</v>
       </c>
       <c r="D42" t="n">
-        <v>3.717</v>
+        <v>3.864</v>
       </c>
       <c r="E42" t="n">
-        <v>3.717</v>
+        <v>3.864</v>
       </c>
       <c r="F42" t="n">
-        <v>130739.6936</v>
+        <v>47075.6049</v>
       </c>
       <c r="G42" t="n">
-        <v>-17344910.88618421</v>
+        <v>-16745278.26538329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,28 +1927,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.716</v>
+        <v>3.864</v>
       </c>
       <c r="C43" t="n">
-        <v>3.716</v>
+        <v>3.864</v>
       </c>
       <c r="D43" t="n">
-        <v>3.716</v>
+        <v>3.864</v>
       </c>
       <c r="E43" t="n">
-        <v>3.716</v>
+        <v>3.864</v>
       </c>
       <c r="F43" t="n">
-        <v>85539.5104</v>
+        <v>87000</v>
       </c>
       <c r="G43" t="n">
-        <v>-17430450.39658421</v>
+        <v>-16745278.26538329</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,28 +1963,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.716</v>
+        <v>3.95</v>
       </c>
       <c r="C44" t="n">
-        <v>3.716</v>
+        <v>3.95</v>
       </c>
       <c r="D44" t="n">
-        <v>3.716</v>
+        <v>3.95</v>
       </c>
       <c r="E44" t="n">
-        <v>3.716</v>
+        <v>3.95</v>
       </c>
       <c r="F44" t="n">
-        <v>56012.404</v>
+        <v>6403.1604</v>
       </c>
       <c r="G44" t="n">
-        <v>-17430450.39658421</v>
+        <v>-16738875.10498329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,28 +1999,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="C45" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="D45" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="E45" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="F45" t="n">
-        <v>113351.4132</v>
+        <v>984.5817</v>
       </c>
       <c r="G45" t="n">
-        <v>-17317098.98338421</v>
+        <v>-16738875.10498329</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,28 +2035,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="C46" t="n">
-        <v>3.787</v>
+        <v>3.95</v>
       </c>
       <c r="D46" t="n">
-        <v>3.797</v>
+        <v>3.95</v>
       </c>
       <c r="E46" t="n">
-        <v>3.747</v>
+        <v>3.95</v>
       </c>
       <c r="F46" t="n">
-        <v>568970.3567</v>
+        <v>18190</v>
       </c>
       <c r="G46" t="n">
-        <v>-16748128.62668421</v>
+        <v>-16738875.10498329</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,28 +2071,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.757</v>
+        <v>3.95</v>
       </c>
       <c r="C47" t="n">
-        <v>3.757</v>
+        <v>3.928</v>
       </c>
       <c r="D47" t="n">
-        <v>3.757</v>
+        <v>3.95</v>
       </c>
       <c r="E47" t="n">
-        <v>3.757</v>
+        <v>3.928</v>
       </c>
       <c r="F47" t="n">
-        <v>2216.6494</v>
+        <v>80000</v>
       </c>
       <c r="G47" t="n">
-        <v>-16750345.27608421</v>
+        <v>-16818875.10498329</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,28 +2107,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.787</v>
+        <v>3.928</v>
       </c>
       <c r="C48" t="n">
-        <v>3.848</v>
+        <v>3.928</v>
       </c>
       <c r="D48" t="n">
-        <v>3.848</v>
+        <v>3.928</v>
       </c>
       <c r="E48" t="n">
-        <v>3.787</v>
+        <v>3.928</v>
       </c>
       <c r="F48" t="n">
-        <v>266479.315213747</v>
+        <v>1440.2391</v>
       </c>
       <c r="G48" t="n">
-        <v>-16483865.96087047</v>
+        <v>-16818875.10498329</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,28 +2143,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.75</v>
+        <v>3.856</v>
       </c>
       <c r="C49" t="n">
-        <v>3.75</v>
+        <v>3.856</v>
       </c>
       <c r="D49" t="n">
-        <v>3.75</v>
+        <v>3.856</v>
       </c>
       <c r="E49" t="n">
-        <v>3.75</v>
+        <v>3.856</v>
       </c>
       <c r="F49" t="n">
-        <v>134</v>
+        <v>173872.7419</v>
       </c>
       <c r="G49" t="n">
-        <v>-16483999.96087047</v>
+        <v>-16992747.84688329</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,28 +2179,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.83</v>
+        <v>3.856</v>
       </c>
       <c r="C50" t="n">
-        <v>3.83</v>
+        <v>3.856</v>
       </c>
       <c r="D50" t="n">
-        <v>3.83</v>
+        <v>3.856</v>
       </c>
       <c r="E50" t="n">
-        <v>3.83</v>
+        <v>3.856</v>
       </c>
       <c r="F50" t="n">
-        <v>131</v>
+        <v>45536.3313</v>
       </c>
       <c r="G50" t="n">
-        <v>-16483868.96087047</v>
+        <v>-16992747.84688329</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,28 +2215,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.79</v>
+        <v>3.915</v>
       </c>
       <c r="C51" t="n">
-        <v>3.79</v>
+        <v>4.021</v>
       </c>
       <c r="D51" t="n">
-        <v>3.79</v>
+        <v>4.021</v>
       </c>
       <c r="E51" t="n">
-        <v>3.79</v>
+        <v>3.915</v>
       </c>
       <c r="F51" t="n">
-        <v>329.1205</v>
+        <v>687883.662836781</v>
       </c>
       <c r="G51" t="n">
-        <v>-16484198.08137047</v>
+        <v>-16304864.18404651</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,28 +2251,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.83</v>
+        <v>4.011</v>
       </c>
       <c r="C52" t="n">
-        <v>3.83</v>
+        <v>4.011</v>
       </c>
       <c r="D52" t="n">
-        <v>3.83</v>
+        <v>4.011</v>
       </c>
       <c r="E52" t="n">
-        <v>3.83</v>
+        <v>4.011</v>
       </c>
       <c r="F52" t="n">
-        <v>131</v>
+        <v>71006.5897</v>
       </c>
       <c r="G52" t="n">
-        <v>-16484067.08137047</v>
+        <v>-16375870.77374651</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,28 +2287,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.83</v>
+        <v>3.98</v>
       </c>
       <c r="C53" t="n">
-        <v>3.851</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>3.851</v>
+        <v>4.01</v>
       </c>
       <c r="E53" t="n">
-        <v>3.83</v>
+        <v>3.98</v>
       </c>
       <c r="F53" t="n">
-        <v>312429.7723</v>
+        <v>32810</v>
       </c>
       <c r="G53" t="n">
-        <v>-16171637.30907047</v>
+        <v>-16408680.77374651</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,34 +2323,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>2669.827287179</v>
+        <v>47910.1167</v>
       </c>
       <c r="G54" t="n">
-        <v>-16168967.48178329</v>
+        <v>-16408680.77374651</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2298,34 +2359,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>12393.8724</v>
+        <v>5890.5665</v>
       </c>
       <c r="G55" t="n">
-        <v>-16181361.35418329</v>
+        <v>-16408680.77374651</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2333,34 +2395,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>129</v>
+        <v>51519.25</v>
       </c>
       <c r="G56" t="n">
-        <v>-16181232.35418329</v>
+        <v>-16408680.77374651</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2368,34 +2431,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="C57" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="D57" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="E57" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="F57" t="n">
-        <v>26520.8841</v>
+        <v>72120</v>
       </c>
       <c r="G57" t="n">
-        <v>-16207753.23828329</v>
+        <v>-16480800.77374651</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,34 +2467,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.84</v>
+        <v>3.94</v>
       </c>
       <c r="C58" t="n">
-        <v>3.84</v>
+        <v>3.924</v>
       </c>
       <c r="D58" t="n">
-        <v>3.84</v>
+        <v>3.94</v>
       </c>
       <c r="E58" t="n">
-        <v>3.84</v>
+        <v>3.924</v>
       </c>
       <c r="F58" t="n">
-        <v>41335.2163</v>
+        <v>26570.777</v>
       </c>
       <c r="G58" t="n">
-        <v>-16249088.45458329</v>
+        <v>-16507371.55074651</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2438,34 +2503,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.889</v>
+        <v>3.95</v>
       </c>
       <c r="C59" t="n">
-        <v>3.889</v>
+        <v>3.95</v>
       </c>
       <c r="D59" t="n">
-        <v>3.889</v>
+        <v>3.95</v>
       </c>
       <c r="E59" t="n">
-        <v>3.889</v>
+        <v>3.95</v>
       </c>
       <c r="F59" t="n">
-        <v>44235.0154</v>
+        <v>10875.0478</v>
       </c>
       <c r="G59" t="n">
-        <v>-16204853.43918329</v>
+        <v>-16496496.50294651</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2473,34 +2539,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.889</v>
+        <v>3.924</v>
       </c>
       <c r="C60" t="n">
-        <v>3.899</v>
+        <v>3.924</v>
       </c>
       <c r="D60" t="n">
-        <v>3.899</v>
+        <v>3.924</v>
       </c>
       <c r="E60" t="n">
-        <v>3.889</v>
+        <v>3.924</v>
       </c>
       <c r="F60" t="n">
-        <v>62700.263</v>
+        <v>87792.6856</v>
       </c>
       <c r="G60" t="n">
-        <v>-16142153.17618329</v>
+        <v>-16584289.18854651</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2508,28 +2575,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.889</v>
+        <v>3.914</v>
       </c>
       <c r="C61" t="n">
-        <v>3.899</v>
+        <v>3.914</v>
       </c>
       <c r="D61" t="n">
-        <v>3.899</v>
+        <v>3.914</v>
       </c>
       <c r="E61" t="n">
-        <v>3.889</v>
+        <v>3.914</v>
       </c>
       <c r="F61" t="n">
-        <v>111000</v>
+        <v>902.0141</v>
       </c>
       <c r="G61" t="n">
-        <v>-16142153.17618329</v>
+        <v>-16585191.20264651</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,28 +2611,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.889</v>
+        <v>3.927</v>
       </c>
       <c r="C62" t="n">
-        <v>3.889</v>
+        <v>3.928</v>
       </c>
       <c r="D62" t="n">
-        <v>3.889</v>
+        <v>3.928</v>
       </c>
       <c r="E62" t="n">
-        <v>3.889</v>
+        <v>3.927</v>
       </c>
       <c r="F62" t="n">
-        <v>9730</v>
+        <v>77076.7136</v>
       </c>
       <c r="G62" t="n">
-        <v>-16151883.17618329</v>
+        <v>-16508114.48904651</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,28 +2647,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.91</v>
+        <v>3.928</v>
       </c>
       <c r="C63" t="n">
-        <v>3.939</v>
+        <v>3.928</v>
       </c>
       <c r="D63" t="n">
-        <v>3.939</v>
+        <v>3.928</v>
       </c>
       <c r="E63" t="n">
-        <v>3.91</v>
+        <v>3.928</v>
       </c>
       <c r="F63" t="n">
-        <v>20186.7485</v>
+        <v>727.9865</v>
       </c>
       <c r="G63" t="n">
-        <v>-16131696.42768329</v>
+        <v>-16508114.48904651</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,28 +2683,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.939</v>
+        <v>3.914</v>
       </c>
       <c r="C64" t="n">
-        <v>3.94</v>
+        <v>3.911</v>
       </c>
       <c r="D64" t="n">
-        <v>3.94</v>
+        <v>3.914</v>
       </c>
       <c r="E64" t="n">
-        <v>3.939</v>
+        <v>3.911</v>
       </c>
       <c r="F64" t="n">
-        <v>101004.0003</v>
+        <v>100000</v>
       </c>
       <c r="G64" t="n">
-        <v>-16030692.42738329</v>
+        <v>-16608114.48904651</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,28 +2719,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.94</v>
+        <v>3.911</v>
       </c>
       <c r="C65" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="D65" t="n">
-        <v>3.94</v>
+        <v>3.911</v>
       </c>
       <c r="E65" t="n">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="F65" t="n">
-        <v>100000</v>
+        <v>104444.1974</v>
       </c>
       <c r="G65" t="n">
-        <v>-16030692.42738329</v>
+        <v>-16712558.68644651</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,28 +2755,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="C66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="D66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="E66" t="n">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
       <c r="F66" t="n">
-        <v>50000</v>
+        <v>2588.6616</v>
       </c>
       <c r="G66" t="n">
-        <v>-16030692.42738329</v>
+        <v>-16715147.34804651</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,28 +2791,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.94</v>
+        <v>3.859</v>
       </c>
       <c r="C67" t="n">
-        <v>4.018</v>
+        <v>3.86</v>
       </c>
       <c r="D67" t="n">
-        <v>4.018</v>
+        <v>3.86</v>
       </c>
       <c r="E67" t="n">
-        <v>3.94</v>
+        <v>3.859</v>
       </c>
       <c r="F67" t="n">
-        <v>34230.2967</v>
+        <v>406724.5493</v>
       </c>
       <c r="G67" t="n">
-        <v>-15996462.13068329</v>
+        <v>-16715147.34804651</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,28 +2827,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.018</v>
+        <v>3.86</v>
       </c>
       <c r="C68" t="n">
-        <v>4.021</v>
+        <v>3.86</v>
       </c>
       <c r="D68" t="n">
-        <v>4.021</v>
+        <v>3.86</v>
       </c>
       <c r="E68" t="n">
-        <v>4.018</v>
+        <v>3.86</v>
       </c>
       <c r="F68" t="n">
-        <v>33934.9614</v>
+        <v>279974.5942</v>
       </c>
       <c r="G68" t="n">
-        <v>-15962527.16928329</v>
+        <v>-16715147.34804651</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,28 +2863,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.02</v>
+        <v>3.864</v>
       </c>
       <c r="C69" t="n">
-        <v>4.021</v>
+        <v>3.864</v>
       </c>
       <c r="D69" t="n">
-        <v>4.021</v>
+        <v>3.864</v>
       </c>
       <c r="E69" t="n">
-        <v>4.02</v>
+        <v>3.864</v>
       </c>
       <c r="F69" t="n">
-        <v>397523.6848</v>
+        <v>111043.9578</v>
       </c>
       <c r="G69" t="n">
-        <v>-15962527.16928329</v>
+        <v>-16604103.39024651</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,28 +2899,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.97</v>
+        <v>3.865</v>
       </c>
       <c r="C70" t="n">
-        <v>3.97</v>
+        <v>3.864</v>
       </c>
       <c r="D70" t="n">
-        <v>3.97</v>
+        <v>3.865</v>
       </c>
       <c r="E70" t="n">
-        <v>3.97</v>
+        <v>3.864</v>
       </c>
       <c r="F70" t="n">
-        <v>192717.617</v>
+        <v>301484.7672</v>
       </c>
       <c r="G70" t="n">
-        <v>-16155244.78628329</v>
+        <v>-16604103.39024651</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,28 +2935,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.96</v>
+        <v>3.863</v>
       </c>
       <c r="C71" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="D71" t="n">
-        <v>3.96</v>
+        <v>3.863</v>
       </c>
       <c r="E71" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F71" t="n">
-        <v>341773.2651</v>
+        <v>141900.0213</v>
       </c>
       <c r="G71" t="n">
-        <v>-16497018.05138329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,28 +2971,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C72" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="D72" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="E72" t="n">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="F72" t="n">
-        <v>30527.86</v>
+        <v>143447.3842</v>
       </c>
       <c r="G72" t="n">
-        <v>-16497018.05138329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,28 +3007,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="C73" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="D73" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="E73" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="F73" t="n">
-        <v>48010.1384</v>
+        <v>200000</v>
       </c>
       <c r="G73" t="n">
-        <v>-16545028.18978329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,28 +3043,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.949</v>
+        <v>3.87</v>
       </c>
       <c r="C74" t="n">
-        <v>3.949</v>
+        <v>3.86</v>
       </c>
       <c r="D74" t="n">
-        <v>3.949</v>
+        <v>3.87</v>
       </c>
       <c r="E74" t="n">
-        <v>3.949</v>
+        <v>3.86</v>
       </c>
       <c r="F74" t="n">
-        <v>160</v>
+        <v>43448.7216</v>
       </c>
       <c r="G74" t="n">
-        <v>-16544868.18978329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,28 +3079,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="C75" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="D75" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="E75" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>6551.2784</v>
       </c>
       <c r="G75" t="n">
-        <v>-16545368.18978329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,28 +3115,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="C76" t="n">
-        <v>3.868</v>
+        <v>3.86</v>
       </c>
       <c r="D76" t="n">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="E76" t="n">
-        <v>3.868</v>
+        <v>3.86</v>
       </c>
       <c r="F76" t="n">
-        <v>116196.3307</v>
+        <v>91676.83779999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-16661564.52048329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3077,19 +3161,19 @@
         <v>3.86</v>
       </c>
       <c r="C77" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="D77" t="n">
         <v>3.86</v>
       </c>
       <c r="E77" t="n">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
       <c r="F77" t="n">
-        <v>15666.3554</v>
+        <v>8323.162200000001</v>
       </c>
       <c r="G77" t="n">
-        <v>-16677230.87588329</v>
+        <v>-16746003.41154651</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,28 +3187,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.83</v>
+        <v>3.878</v>
       </c>
       <c r="C78" t="n">
-        <v>3.83</v>
+        <v>3.888</v>
       </c>
       <c r="D78" t="n">
-        <v>3.83</v>
+        <v>3.888</v>
       </c>
       <c r="E78" t="n">
-        <v>3.83</v>
+        <v>3.878</v>
       </c>
       <c r="F78" t="n">
-        <v>260.8356</v>
+        <v>60460.1498</v>
       </c>
       <c r="G78" t="n">
-        <v>-16677491.71148329</v>
+        <v>-16685543.26174651</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,28 +3223,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.823</v>
+        <v>3.865</v>
       </c>
       <c r="C79" t="n">
-        <v>3.812</v>
+        <v>3.865</v>
       </c>
       <c r="D79" t="n">
-        <v>3.823</v>
+        <v>3.865</v>
       </c>
       <c r="E79" t="n">
-        <v>3.812</v>
+        <v>3.865</v>
       </c>
       <c r="F79" t="n">
-        <v>124653.8953</v>
+        <v>13620</v>
       </c>
       <c r="G79" t="n">
-        <v>-16802145.60678329</v>
+        <v>-16699163.26174651</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,28 +3259,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.829</v>
+        <v>3.859</v>
       </c>
       <c r="C80" t="n">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="D80" t="n">
-        <v>3.89</v>
+        <v>3.859</v>
       </c>
       <c r="E80" t="n">
-        <v>3.829</v>
+        <v>3.85</v>
       </c>
       <c r="F80" t="n">
-        <v>104262.0765</v>
+        <v>74094.1492</v>
       </c>
       <c r="G80" t="n">
-        <v>-16697883.53028329</v>
+        <v>-16773257.41094651</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,28 +3295,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.918</v>
+        <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>3.939</v>
+        <v>3.849</v>
       </c>
       <c r="D81" t="n">
-        <v>3.939</v>
+        <v>3.85</v>
       </c>
       <c r="E81" t="n">
-        <v>3.918</v>
+        <v>3.849</v>
       </c>
       <c r="F81" t="n">
-        <v>255</v>
+        <v>2889.6782</v>
       </c>
       <c r="G81" t="n">
-        <v>-16697628.53028329</v>
+        <v>-16776147.08914651</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,28 +3331,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="C82" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="D82" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="E82" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="F82" t="n">
-        <v>574.1301999999999</v>
+        <v>850</v>
       </c>
       <c r="G82" t="n">
-        <v>-16698202.66048329</v>
+        <v>-16776997.08914651</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,28 +3367,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="C83" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="D83" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="E83" t="n">
-        <v>3.897</v>
+        <v>3.848</v>
       </c>
       <c r="F83" t="n">
-        <v>666.8026</v>
+        <v>300</v>
       </c>
       <c r="G83" t="n">
-        <v>-16698202.66048329</v>
+        <v>-16776997.08914651</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,98 +3403,113 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.864</v>
+        <v>3.847</v>
       </c>
       <c r="C84" t="n">
-        <v>3.864</v>
+        <v>3.847</v>
       </c>
       <c r="D84" t="n">
-        <v>3.864</v>
+        <v>3.847</v>
       </c>
       <c r="E84" t="n">
-        <v>3.864</v>
+        <v>3.847</v>
       </c>
       <c r="F84" t="n">
-        <v>47075.6049</v>
+        <v>700</v>
       </c>
       <c r="G84" t="n">
-        <v>-16745278.26538329</v>
+        <v>-16777697.08914651</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.848</v>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.864</v>
+        <v>3.846</v>
       </c>
       <c r="C85" t="n">
-        <v>3.864</v>
+        <v>3.845</v>
       </c>
       <c r="D85" t="n">
-        <v>3.864</v>
+        <v>3.846</v>
       </c>
       <c r="E85" t="n">
-        <v>3.864</v>
+        <v>3.845</v>
       </c>
       <c r="F85" t="n">
-        <v>87000</v>
+        <v>1400</v>
       </c>
       <c r="G85" t="n">
-        <v>-16745278.26538329</v>
+        <v>-16779097.08914651</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.95</v>
+        <v>3.844</v>
       </c>
       <c r="C86" t="n">
-        <v>3.95</v>
+        <v>3.844</v>
       </c>
       <c r="D86" t="n">
-        <v>3.95</v>
+        <v>3.844</v>
       </c>
       <c r="E86" t="n">
-        <v>3.95</v>
+        <v>3.844</v>
       </c>
       <c r="F86" t="n">
-        <v>6403.1604</v>
+        <v>700</v>
       </c>
       <c r="G86" t="n">
-        <v>-16738875.10498329</v>
+        <v>-16779797.08914651</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3413,33 +3518,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.95</v>
+        <v>3.843</v>
       </c>
       <c r="C87" t="n">
-        <v>3.95</v>
+        <v>3.843</v>
       </c>
       <c r="D87" t="n">
-        <v>3.95</v>
+        <v>3.843</v>
       </c>
       <c r="E87" t="n">
-        <v>3.95</v>
+        <v>3.843</v>
       </c>
       <c r="F87" t="n">
-        <v>984.5817</v>
+        <v>700</v>
       </c>
       <c r="G87" t="n">
-        <v>-16738875.10498329</v>
+        <v>-16780497.08914651</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3448,33 +3560,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.95</v>
+        <v>3.842</v>
       </c>
       <c r="C88" t="n">
-        <v>3.95</v>
+        <v>3.842</v>
       </c>
       <c r="D88" t="n">
-        <v>3.95</v>
+        <v>3.842</v>
       </c>
       <c r="E88" t="n">
-        <v>3.95</v>
+        <v>3.842</v>
       </c>
       <c r="F88" t="n">
-        <v>18190</v>
+        <v>700</v>
       </c>
       <c r="G88" t="n">
-        <v>-16738875.10498329</v>
+        <v>-16781197.08914651</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3483,313 +3602,392 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="C89" t="n">
-        <v>3.928</v>
+        <v>3.839</v>
       </c>
       <c r="D89" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="E89" t="n">
-        <v>3.928</v>
+        <v>3.839</v>
       </c>
       <c r="F89" t="n">
-        <v>80000</v>
+        <v>2100</v>
       </c>
       <c r="G89" t="n">
-        <v>-16818875.10498329</v>
+        <v>-16783297.08914651</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.928</v>
+        <v>3.838</v>
       </c>
       <c r="C90" t="n">
-        <v>3.928</v>
+        <v>3.835</v>
       </c>
       <c r="D90" t="n">
-        <v>3.928</v>
+        <v>3.838</v>
       </c>
       <c r="E90" t="n">
-        <v>3.928</v>
+        <v>3.835</v>
       </c>
       <c r="F90" t="n">
-        <v>1440.2391</v>
+        <v>2800</v>
       </c>
       <c r="G90" t="n">
-        <v>-16818875.10498329</v>
+        <v>-16786097.08914651</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.856</v>
+        <v>3.834</v>
       </c>
       <c r="C91" t="n">
-        <v>3.856</v>
+        <v>3.833</v>
       </c>
       <c r="D91" t="n">
-        <v>3.856</v>
+        <v>3.834</v>
       </c>
       <c r="E91" t="n">
-        <v>3.856</v>
+        <v>3.833</v>
       </c>
       <c r="F91" t="n">
-        <v>173872.7419</v>
+        <v>4065.3056</v>
       </c>
       <c r="G91" t="n">
-        <v>-16992747.84688329</v>
+        <v>-16790162.39474651</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.835</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.856</v>
+        <v>3.832</v>
       </c>
       <c r="C92" t="n">
-        <v>3.856</v>
+        <v>3.832</v>
       </c>
       <c r="D92" t="n">
-        <v>3.856</v>
+        <v>3.832</v>
       </c>
       <c r="E92" t="n">
-        <v>3.856</v>
+        <v>3.832</v>
       </c>
       <c r="F92" t="n">
-        <v>45536.3313</v>
+        <v>700</v>
       </c>
       <c r="G92" t="n">
-        <v>-16992747.84688329</v>
+        <v>-16790862.39474651</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.915</v>
+        <v>3.831</v>
       </c>
       <c r="C93" t="n">
-        <v>4.021</v>
+        <v>3.827</v>
       </c>
       <c r="D93" t="n">
-        <v>4.021</v>
+        <v>3.831</v>
       </c>
       <c r="E93" t="n">
-        <v>3.915</v>
+        <v>3.827</v>
       </c>
       <c r="F93" t="n">
-        <v>687883.662836781</v>
+        <v>175746.3698</v>
       </c>
       <c r="G93" t="n">
-        <v>-16304864.18404651</v>
+        <v>-16966608.76454651</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.832</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.011</v>
+        <v>3.83</v>
       </c>
       <c r="C94" t="n">
-        <v>4.011</v>
+        <v>3.831</v>
       </c>
       <c r="D94" t="n">
-        <v>4.011</v>
+        <v>3.831</v>
       </c>
       <c r="E94" t="n">
-        <v>4.011</v>
+        <v>3.83</v>
       </c>
       <c r="F94" t="n">
-        <v>71006.5897</v>
+        <v>287838.032</v>
       </c>
       <c r="G94" t="n">
-        <v>-16375870.77374651</v>
+        <v>-16678770.73254651</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.98</v>
+        <v>3.831</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3.827</v>
       </c>
       <c r="D95" t="n">
-        <v>4.01</v>
+        <v>3.841</v>
       </c>
       <c r="E95" t="n">
-        <v>3.98</v>
+        <v>3.81</v>
       </c>
       <c r="F95" t="n">
-        <v>32810</v>
+        <v>839403.876200702</v>
       </c>
       <c r="G95" t="n">
-        <v>-16408680.77374651</v>
+        <v>-17518174.60874721</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>3.831</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3.831</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>3.831</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>3.831</v>
       </c>
       <c r="F96" t="n">
-        <v>47910.1167</v>
+        <v>8820.3218</v>
       </c>
       <c r="G96" t="n">
-        <v>-16408680.77374651</v>
+        <v>-17509354.28694721</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="F97" t="n">
-        <v>5890.5665</v>
+        <v>140307.0609</v>
       </c>
       <c r="G97" t="n">
-        <v>-16408680.77374651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,33 +3996,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3.841</v>
       </c>
       <c r="F98" t="n">
-        <v>51519.25</v>
+        <v>103750.8182</v>
       </c>
       <c r="G98" t="n">
-        <v>-16408680.77374651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,33 +4038,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="C99" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="D99" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="E99" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="F99" t="n">
-        <v>72120</v>
+        <v>100734.1734</v>
       </c>
       <c r="G99" t="n">
-        <v>-16480800.77374651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,33 +4080,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.94</v>
+        <v>3.841</v>
       </c>
       <c r="C100" t="n">
-        <v>3.924</v>
+        <v>3.841</v>
       </c>
       <c r="D100" t="n">
-        <v>3.94</v>
+        <v>3.841</v>
       </c>
       <c r="E100" t="n">
-        <v>3.924</v>
+        <v>3.841</v>
       </c>
       <c r="F100" t="n">
-        <v>26570.777</v>
+        <v>553257.2394</v>
       </c>
       <c r="G100" t="n">
-        <v>-16507371.55074651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,33 +4122,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="C101" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="D101" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="E101" t="n">
-        <v>3.95</v>
+        <v>3.841</v>
       </c>
       <c r="F101" t="n">
-        <v>10875.0478</v>
+        <v>85815.865399298</v>
       </c>
       <c r="G101" t="n">
-        <v>-16496496.50294651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3938,33 +4164,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="C102" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="D102" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="E102" t="n">
-        <v>3.924</v>
+        <v>3.93</v>
       </c>
       <c r="F102" t="n">
-        <v>87792.6856</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>-16584289.18854651</v>
+        <v>-17368047.22604721</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3973,33 +4206,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="C103" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="D103" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="E103" t="n">
-        <v>3.914</v>
+        <v>3.85</v>
       </c>
       <c r="F103" t="n">
-        <v>902.0141</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>-16585191.20264651</v>
+        <v>-17369047.22604721</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4008,33 +4248,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.927</v>
+        <v>3.849</v>
       </c>
       <c r="C104" t="n">
-        <v>3.928</v>
+        <v>3.849</v>
       </c>
       <c r="D104" t="n">
-        <v>3.928</v>
+        <v>3.849</v>
       </c>
       <c r="E104" t="n">
-        <v>3.927</v>
+        <v>3.849</v>
       </c>
       <c r="F104" t="n">
-        <v>77076.7136</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>-16508114.48904651</v>
+        <v>-17370047.22604721</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4043,33 +4290,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.928</v>
+        <v>3.85</v>
       </c>
       <c r="C105" t="n">
-        <v>3.928</v>
+        <v>3.85</v>
       </c>
       <c r="D105" t="n">
-        <v>3.928</v>
+        <v>3.85</v>
       </c>
       <c r="E105" t="n">
-        <v>3.928</v>
+        <v>3.85</v>
       </c>
       <c r="F105" t="n">
-        <v>727.9865</v>
+        <v>5256.6816</v>
       </c>
       <c r="G105" t="n">
-        <v>-16508114.48904651</v>
+        <v>-17364790.54444721</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4078,33 +4332,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.914</v>
+        <v>3.848</v>
       </c>
       <c r="C106" t="n">
-        <v>3.911</v>
+        <v>3.848</v>
       </c>
       <c r="D106" t="n">
-        <v>3.914</v>
+        <v>3.848</v>
       </c>
       <c r="E106" t="n">
-        <v>3.911</v>
+        <v>3.848</v>
       </c>
       <c r="F106" t="n">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>-16608114.48904651</v>
+        <v>-17365790.54444721</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,33 +4374,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.911</v>
+        <v>3.847</v>
       </c>
       <c r="C107" t="n">
-        <v>3.87</v>
+        <v>3.847</v>
       </c>
       <c r="D107" t="n">
-        <v>3.911</v>
+        <v>3.847</v>
       </c>
       <c r="E107" t="n">
-        <v>3.87</v>
+        <v>3.847</v>
       </c>
       <c r="F107" t="n">
-        <v>104444.1974</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>-16712558.68644651</v>
+        <v>-17366790.54444721</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4148,33 +4416,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="C108" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="D108" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="E108" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="F108" t="n">
-        <v>2588.6616</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>-16715147.34804651</v>
+        <v>-17367790.54444721</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4183,33 +4458,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.859</v>
+        <v>3.846</v>
       </c>
       <c r="C109" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="D109" t="n">
-        <v>3.86</v>
+        <v>3.846</v>
       </c>
       <c r="E109" t="n">
-        <v>3.859</v>
+        <v>3.846</v>
       </c>
       <c r="F109" t="n">
-        <v>406724.5493</v>
+        <v>5015.7264</v>
       </c>
       <c r="G109" t="n">
-        <v>-16715147.34804651</v>
+        <v>-17367790.54444721</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4218,33 +4500,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.86</v>
+        <v>3.848</v>
       </c>
       <c r="C110" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="D110" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="E110" t="n">
-        <v>3.86</v>
+        <v>3.848</v>
       </c>
       <c r="F110" t="n">
-        <v>279974.5942</v>
+        <v>416581.2768</v>
       </c>
       <c r="G110" t="n">
-        <v>-16715147.34804651</v>
+        <v>-16951209.26764721</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4253,33 +4542,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="C111" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="D111" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="E111" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="F111" t="n">
-        <v>111043.9578</v>
+        <v>127</v>
       </c>
       <c r="G111" t="n">
-        <v>-16604103.39024651</v>
+        <v>-16951082.26764721</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4288,33 +4584,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.865</v>
+        <v>3.94</v>
       </c>
       <c r="C112" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="D112" t="n">
-        <v>3.865</v>
+        <v>3.94</v>
       </c>
       <c r="E112" t="n">
-        <v>3.864</v>
+        <v>3.94</v>
       </c>
       <c r="F112" t="n">
-        <v>301484.7672</v>
+        <v>127</v>
       </c>
       <c r="G112" t="n">
-        <v>-16604103.39024651</v>
+        <v>-16951082.26764721</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,33 +4626,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.863</v>
+        <v>3.851</v>
       </c>
       <c r="C113" t="n">
-        <v>3.86</v>
+        <v>3.851</v>
       </c>
       <c r="D113" t="n">
-        <v>3.863</v>
+        <v>3.851</v>
       </c>
       <c r="E113" t="n">
-        <v>3.86</v>
+        <v>3.851</v>
       </c>
       <c r="F113" t="n">
-        <v>141900.0213</v>
+        <v>17137.9937</v>
       </c>
       <c r="G113" t="n">
-        <v>-16746003.41154651</v>
+        <v>-16968220.26134722</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,33 +4668,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="C114" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="D114" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="E114" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="F114" t="n">
-        <v>143447.3842</v>
+        <v>80306.36810000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17048526.62944721</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,33 +4710,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="C115" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="D115" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="E115" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="F115" t="n">
-        <v>200000</v>
+        <v>346.398</v>
       </c>
       <c r="G115" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17048180.23144722</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,33 +4752,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.87</v>
+        <v>3.856</v>
       </c>
       <c r="C116" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="D116" t="n">
-        <v>3.87</v>
+        <v>3.856</v>
       </c>
       <c r="E116" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="F116" t="n">
-        <v>43448.7216</v>
+        <v>15271.3669</v>
       </c>
       <c r="G116" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17048180.23144722</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,33 +4794,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="C117" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="D117" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="E117" t="n">
-        <v>3.86</v>
+        <v>3.94</v>
       </c>
       <c r="F117" t="n">
-        <v>6551.2784</v>
+        <v>3824.7892</v>
       </c>
       <c r="G117" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17044355.44224722</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,33 +4836,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="C118" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="D118" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="E118" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="F118" t="n">
-        <v>91676.83779999999</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17042355.44224722</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,33 +4878,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="C119" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="D119" t="n">
-        <v>3.86</v>
+        <v>3.949</v>
       </c>
       <c r="E119" t="n">
-        <v>3.86</v>
+        <v>3.948</v>
       </c>
       <c r="F119" t="n">
-        <v>8323.162200000001</v>
+        <v>774665.6723</v>
       </c>
       <c r="G119" t="n">
-        <v>-16746003.41154651</v>
+        <v>-17042355.44224722</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,33 +4920,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.878</v>
+        <v>3.881</v>
       </c>
       <c r="C120" t="n">
-        <v>3.888</v>
+        <v>3.85</v>
       </c>
       <c r="D120" t="n">
-        <v>3.888</v>
+        <v>3.881</v>
       </c>
       <c r="E120" t="n">
-        <v>3.878</v>
+        <v>3.85</v>
       </c>
       <c r="F120" t="n">
-        <v>60460.1498</v>
+        <v>130000</v>
       </c>
       <c r="G120" t="n">
-        <v>-16685543.26174651</v>
+        <v>-17172355.44224722</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,33 +4962,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.865</v>
+        <v>3.937</v>
       </c>
       <c r="C121" t="n">
-        <v>3.865</v>
+        <v>3.937</v>
       </c>
       <c r="D121" t="n">
-        <v>3.865</v>
+        <v>3.937</v>
       </c>
       <c r="E121" t="n">
-        <v>3.865</v>
+        <v>3.937</v>
       </c>
       <c r="F121" t="n">
-        <v>13620</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>-16699163.26174651</v>
+        <v>-17171355.44224722</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,33 +5004,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.859</v>
+        <v>3.937</v>
       </c>
       <c r="C122" t="n">
-        <v>3.85</v>
+        <v>3.937</v>
       </c>
       <c r="D122" t="n">
-        <v>3.859</v>
+        <v>3.937</v>
       </c>
       <c r="E122" t="n">
-        <v>3.85</v>
+        <v>3.937</v>
       </c>
       <c r="F122" t="n">
-        <v>74094.1492</v>
+        <v>14196.5659</v>
       </c>
       <c r="G122" t="n">
-        <v>-16773257.41094651</v>
+        <v>-17171355.44224722</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,33 +5046,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.85</v>
+        <v>3.914</v>
       </c>
       <c r="C123" t="n">
-        <v>3.849</v>
+        <v>3.949</v>
       </c>
       <c r="D123" t="n">
-        <v>3.85</v>
+        <v>3.949</v>
       </c>
       <c r="E123" t="n">
-        <v>3.849</v>
+        <v>3.914</v>
       </c>
       <c r="F123" t="n">
-        <v>2889.6782</v>
+        <v>44270.714826285</v>
       </c>
       <c r="G123" t="n">
-        <v>-16776147.08914651</v>
+        <v>-17127084.72742093</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,33 +5088,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.848</v>
+        <v>3.889</v>
       </c>
       <c r="C124" t="n">
-        <v>3.848</v>
+        <v>3.889</v>
       </c>
       <c r="D124" t="n">
-        <v>3.848</v>
+        <v>3.889</v>
       </c>
       <c r="E124" t="n">
-        <v>3.848</v>
+        <v>3.889</v>
       </c>
       <c r="F124" t="n">
-        <v>850</v>
+        <v>15190</v>
       </c>
       <c r="G124" t="n">
-        <v>-16776997.08914651</v>
+        <v>-17142274.72742093</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,33 +5130,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.848</v>
+        <v>3.89</v>
       </c>
       <c r="C125" t="n">
-        <v>3.848</v>
+        <v>3.888</v>
       </c>
       <c r="D125" t="n">
-        <v>3.848</v>
+        <v>3.89</v>
       </c>
       <c r="E125" t="n">
-        <v>3.848</v>
+        <v>3.888</v>
       </c>
       <c r="F125" t="n">
-        <v>300</v>
+        <v>37320</v>
       </c>
       <c r="G125" t="n">
-        <v>-16776997.08914651</v>
+        <v>-17179594.72742093</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,33 +5172,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.847</v>
+        <v>3.939</v>
       </c>
       <c r="C126" t="n">
-        <v>3.847</v>
+        <v>3.939</v>
       </c>
       <c r="D126" t="n">
-        <v>3.847</v>
+        <v>3.939</v>
       </c>
       <c r="E126" t="n">
-        <v>3.847</v>
+        <v>3.939</v>
       </c>
       <c r="F126" t="n">
-        <v>700</v>
+        <v>127</v>
       </c>
       <c r="G126" t="n">
-        <v>-16777697.08914651</v>
+        <v>-17179467.72742093</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,33 +5214,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.846</v>
+        <v>3.888</v>
       </c>
       <c r="C127" t="n">
-        <v>3.845</v>
+        <v>3.888</v>
       </c>
       <c r="D127" t="n">
-        <v>3.846</v>
+        <v>3.888</v>
       </c>
       <c r="E127" t="n">
-        <v>3.845</v>
+        <v>3.888</v>
       </c>
       <c r="F127" t="n">
-        <v>1400</v>
+        <v>17620</v>
       </c>
       <c r="G127" t="n">
-        <v>-16779097.08914651</v>
+        <v>-17197087.72742093</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,33 +5256,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.844</v>
+        <v>3.888</v>
       </c>
       <c r="C128" t="n">
-        <v>3.844</v>
+        <v>3.888</v>
       </c>
       <c r="D128" t="n">
-        <v>3.844</v>
+        <v>3.888</v>
       </c>
       <c r="E128" t="n">
-        <v>3.844</v>
+        <v>3.888</v>
       </c>
       <c r="F128" t="n">
-        <v>700</v>
+        <v>8870</v>
       </c>
       <c r="G128" t="n">
-        <v>-16779797.08914651</v>
+        <v>-17197087.72742093</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,33 +5298,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.843</v>
+        <v>3.888</v>
       </c>
       <c r="C129" t="n">
-        <v>3.843</v>
+        <v>3.888</v>
       </c>
       <c r="D129" t="n">
-        <v>3.843</v>
+        <v>3.888</v>
       </c>
       <c r="E129" t="n">
-        <v>3.843</v>
+        <v>3.888</v>
       </c>
       <c r="F129" t="n">
-        <v>700</v>
+        <v>8870</v>
       </c>
       <c r="G129" t="n">
-        <v>-16780497.08914651</v>
+        <v>-17197087.72742093</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,33 +5340,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.842</v>
+        <v>3.88</v>
       </c>
       <c r="C130" t="n">
-        <v>3.842</v>
+        <v>3.88</v>
       </c>
       <c r="D130" t="n">
-        <v>3.842</v>
+        <v>3.88</v>
       </c>
       <c r="E130" t="n">
-        <v>3.842</v>
+        <v>3.88</v>
       </c>
       <c r="F130" t="n">
-        <v>700</v>
+        <v>93022.85520000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-16781197.08914651</v>
+        <v>-17290110.58262093</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4953,33 +5382,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.841</v>
+        <v>3.879</v>
       </c>
       <c r="C131" t="n">
-        <v>3.839</v>
+        <v>3.879</v>
       </c>
       <c r="D131" t="n">
-        <v>3.841</v>
+        <v>3.879</v>
       </c>
       <c r="E131" t="n">
-        <v>3.839</v>
+        <v>3.879</v>
       </c>
       <c r="F131" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="G131" t="n">
-        <v>-16783297.08914651</v>
+        <v>-17291110.58262093</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4988,33 +5424,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.838</v>
+        <v>3.878</v>
       </c>
       <c r="C132" t="n">
-        <v>3.835</v>
+        <v>3.878</v>
       </c>
       <c r="D132" t="n">
-        <v>3.838</v>
+        <v>3.878</v>
       </c>
       <c r="E132" t="n">
-        <v>3.835</v>
+        <v>3.878</v>
       </c>
       <c r="F132" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="G132" t="n">
-        <v>-16786097.08914651</v>
+        <v>-17292110.58262093</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5023,33 +5466,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.834</v>
+        <v>3.877</v>
       </c>
       <c r="C133" t="n">
-        <v>3.833</v>
+        <v>3.877</v>
       </c>
       <c r="D133" t="n">
-        <v>3.834</v>
+        <v>3.877</v>
       </c>
       <c r="E133" t="n">
-        <v>3.833</v>
+        <v>3.877</v>
       </c>
       <c r="F133" t="n">
-        <v>4065.3056</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="n">
-        <v>-16790162.39474651</v>
+        <v>-17294110.58262093</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5058,33 +5508,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.832</v>
+        <v>3.876</v>
       </c>
       <c r="C134" t="n">
-        <v>3.832</v>
+        <v>3.875</v>
       </c>
       <c r="D134" t="n">
-        <v>3.832</v>
+        <v>3.876</v>
       </c>
       <c r="E134" t="n">
-        <v>3.832</v>
+        <v>3.875</v>
       </c>
       <c r="F134" t="n">
-        <v>700</v>
+        <v>2257.8065</v>
       </c>
       <c r="G134" t="n">
-        <v>-16790862.39474651</v>
+        <v>-17296368.38912093</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5093,33 +5550,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.831</v>
+        <v>3.874</v>
       </c>
       <c r="C135" t="n">
-        <v>3.827</v>
+        <v>3.872</v>
       </c>
       <c r="D135" t="n">
-        <v>3.831</v>
+        <v>3.874</v>
       </c>
       <c r="E135" t="n">
-        <v>3.827</v>
+        <v>3.872</v>
       </c>
       <c r="F135" t="n">
-        <v>175746.3698</v>
+        <v>3258.0062</v>
       </c>
       <c r="G135" t="n">
-        <v>-16966608.76454651</v>
+        <v>-17299626.39532093</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5128,33 +5592,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.83</v>
+        <v>3.871</v>
       </c>
       <c r="C136" t="n">
-        <v>3.831</v>
+        <v>3.869</v>
       </c>
       <c r="D136" t="n">
-        <v>3.831</v>
+        <v>3.871</v>
       </c>
       <c r="E136" t="n">
-        <v>3.83</v>
+        <v>3.869</v>
       </c>
       <c r="F136" t="n">
-        <v>287838.032</v>
+        <v>13000</v>
       </c>
       <c r="G136" t="n">
-        <v>-16678770.73254651</v>
+        <v>-17312626.39532093</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5163,33 +5634,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.831</v>
+        <v>3.868</v>
       </c>
       <c r="C137" t="n">
-        <v>3.827</v>
+        <v>3.868</v>
       </c>
       <c r="D137" t="n">
-        <v>3.841</v>
+        <v>3.868</v>
       </c>
       <c r="E137" t="n">
-        <v>3.81</v>
+        <v>3.868</v>
       </c>
       <c r="F137" t="n">
-        <v>839403.876200702</v>
+        <v>1258.2731</v>
       </c>
       <c r="G137" t="n">
-        <v>-17518174.60874721</v>
+        <v>-17313884.66842093</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5198,158 +5676,166 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.831</v>
+        <v>3.868</v>
       </c>
       <c r="C138" t="n">
-        <v>3.831</v>
+        <v>3.868</v>
       </c>
       <c r="D138" t="n">
-        <v>3.831</v>
+        <v>3.868</v>
       </c>
       <c r="E138" t="n">
-        <v>3.831</v>
+        <v>3.868</v>
       </c>
       <c r="F138" t="n">
-        <v>8820.3218</v>
+        <v>30933.5178</v>
       </c>
       <c r="G138" t="n">
-        <v>-17509354.28694721</v>
+        <v>-17313884.66842093</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>3.827</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="L138" t="inlineStr"/>
+        <v>3.848</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.841</v>
+        <v>3.867</v>
       </c>
       <c r="C139" t="n">
-        <v>3.841</v>
+        <v>3.866</v>
       </c>
       <c r="D139" t="n">
-        <v>3.841</v>
+        <v>3.867</v>
       </c>
       <c r="E139" t="n">
-        <v>3.841</v>
+        <v>3.866</v>
       </c>
       <c r="F139" t="n">
-        <v>140307.0609</v>
+        <v>2000</v>
       </c>
       <c r="G139" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17315884.66842093</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>3.831</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>3.827</v>
+        <v>3.848</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.841</v>
+        <v>3.865</v>
       </c>
       <c r="C140" t="n">
-        <v>3.841</v>
+        <v>3.86</v>
       </c>
       <c r="D140" t="n">
-        <v>3.841</v>
+        <v>3.865</v>
       </c>
       <c r="E140" t="n">
-        <v>3.841</v>
+        <v>3.86</v>
       </c>
       <c r="F140" t="n">
-        <v>103750.8182</v>
+        <v>6517.2817</v>
       </c>
       <c r="G140" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17322401.95012093</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>3.841</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>3.827</v>
+        <v>3.848</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.841</v>
+        <v>3.859</v>
       </c>
       <c r="C141" t="n">
-        <v>3.841</v>
+        <v>3.858</v>
       </c>
       <c r="D141" t="n">
-        <v>3.841</v>
+        <v>3.859</v>
       </c>
       <c r="E141" t="n">
-        <v>3.841</v>
+        <v>3.858</v>
       </c>
       <c r="F141" t="n">
-        <v>100734.1734</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17324401.95012093</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5358,33 +5844,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.841</v>
+        <v>3.857</v>
       </c>
       <c r="C142" t="n">
-        <v>3.841</v>
+        <v>3.857</v>
       </c>
       <c r="D142" t="n">
-        <v>3.841</v>
+        <v>3.857</v>
       </c>
       <c r="E142" t="n">
-        <v>3.841</v>
+        <v>3.857</v>
       </c>
       <c r="F142" t="n">
-        <v>553257.2394</v>
+        <v>1259.0096</v>
       </c>
       <c r="G142" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17325660.95972093</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5393,33 +5886,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.841</v>
+        <v>3.856</v>
       </c>
       <c r="C143" t="n">
-        <v>3.841</v>
+        <v>3.811</v>
       </c>
       <c r="D143" t="n">
-        <v>3.841</v>
+        <v>3.856</v>
       </c>
       <c r="E143" t="n">
-        <v>3.841</v>
+        <v>3.811</v>
       </c>
       <c r="F143" t="n">
-        <v>85815.865399298</v>
+        <v>349555.9416</v>
       </c>
       <c r="G143" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17675216.90132093</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5428,33 +5928,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.93</v>
+        <v>3.821</v>
       </c>
       <c r="C144" t="n">
-        <v>3.93</v>
+        <v>3.856</v>
       </c>
       <c r="D144" t="n">
-        <v>3.93</v>
+        <v>3.856</v>
       </c>
       <c r="E144" t="n">
-        <v>3.93</v>
+        <v>3.811</v>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>350852.622197925</v>
       </c>
       <c r="G144" t="n">
-        <v>-17368047.22604721</v>
+        <v>-17324364.279123</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5463,33 +5970,40 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.85</v>
+        <v>3.812</v>
       </c>
       <c r="C145" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="D145" t="n">
-        <v>3.85</v>
+        <v>3.812</v>
       </c>
       <c r="E145" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>137167.2625</v>
       </c>
       <c r="G145" t="n">
-        <v>-17369047.22604721</v>
+        <v>-17461531.541623</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5498,33 +6012,40 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.849</v>
+        <v>3.811</v>
       </c>
       <c r="C146" t="n">
-        <v>3.849</v>
+        <v>3.811</v>
       </c>
       <c r="D146" t="n">
-        <v>3.849</v>
+        <v>3.811</v>
       </c>
       <c r="E146" t="n">
-        <v>3.849</v>
+        <v>3.811</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>6441.1642</v>
       </c>
       <c r="G146" t="n">
-        <v>-17370047.22604721</v>
+        <v>-17461531.541623</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5533,33 +6054,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="C147" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="D147" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="E147" t="n">
-        <v>3.85</v>
+        <v>3.811</v>
       </c>
       <c r="F147" t="n">
-        <v>5256.6816</v>
+        <v>110000</v>
       </c>
       <c r="G147" t="n">
-        <v>-17364790.54444721</v>
+        <v>-17461531.541623</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5568,33 +6096,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.848</v>
+        <v>3.811</v>
       </c>
       <c r="C148" t="n">
-        <v>3.848</v>
+        <v>3.845</v>
       </c>
       <c r="D148" t="n">
-        <v>3.848</v>
+        <v>3.845</v>
       </c>
       <c r="E148" t="n">
-        <v>3.848</v>
+        <v>3.785</v>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>170173.688086605</v>
       </c>
       <c r="G148" t="n">
-        <v>-17365790.54444721</v>
+        <v>-17291357.85353639</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5603,33 +6138,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.847</v>
+        <v>3.795</v>
       </c>
       <c r="C149" t="n">
-        <v>3.847</v>
+        <v>3.785</v>
       </c>
       <c r="D149" t="n">
-        <v>3.847</v>
+        <v>3.795</v>
       </c>
       <c r="E149" t="n">
-        <v>3.847</v>
+        <v>3.785</v>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>16000</v>
       </c>
       <c r="G149" t="n">
-        <v>-17366790.54444721</v>
+        <v>-17307357.85353639</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5638,33 +6180,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.846</v>
+        <v>3.785</v>
       </c>
       <c r="C150" t="n">
-        <v>3.846</v>
+        <v>3.785</v>
       </c>
       <c r="D150" t="n">
-        <v>3.846</v>
+        <v>3.785</v>
       </c>
       <c r="E150" t="n">
-        <v>3.846</v>
+        <v>3.785</v>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
+        <v>26614.4091</v>
       </c>
       <c r="G150" t="n">
-        <v>-17367790.54444721</v>
+        <v>-17307357.85353639</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5673,33 +6222,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.846</v>
+        <v>3.784</v>
       </c>
       <c r="C151" t="n">
-        <v>3.846</v>
+        <v>3.784</v>
       </c>
       <c r="D151" t="n">
-        <v>3.846</v>
+        <v>3.784</v>
       </c>
       <c r="E151" t="n">
-        <v>3.846</v>
+        <v>3.784</v>
       </c>
       <c r="F151" t="n">
-        <v>5015.7264</v>
+        <v>45488.7814</v>
       </c>
       <c r="G151" t="n">
-        <v>-17367790.54444721</v>
+        <v>-17352846.63493639</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5708,33 +6264,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.848</v>
+        <v>3.786</v>
       </c>
       <c r="C152" t="n">
-        <v>3.85</v>
+        <v>3.786</v>
       </c>
       <c r="D152" t="n">
-        <v>3.85</v>
+        <v>3.786</v>
       </c>
       <c r="E152" t="n">
-        <v>3.848</v>
+        <v>3.786</v>
       </c>
       <c r="F152" t="n">
-        <v>416581.2768</v>
+        <v>35971.7086</v>
       </c>
       <c r="G152" t="n">
-        <v>-16951209.26764721</v>
+        <v>-17316874.92633639</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5743,1525 +6306,18 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C153" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E153" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F153" t="n">
-        <v>127</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-16951082.26764721</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D154" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E154" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F154" t="n">
-        <v>127</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-16951082.26764721</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="C155" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="D155" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="E155" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="F155" t="n">
-        <v>17137.9937</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-16968220.26134722</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="C156" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D156" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="E156" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F156" t="n">
-        <v>80306.36810000001</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-17048526.62944721</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="D157" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="E157" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="F157" t="n">
-        <v>346.398</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-17048180.23144722</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="D158" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="E158" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="F158" t="n">
-        <v>15271.3669</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-17048180.23144722</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D159" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E159" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3824.7892</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-17044355.44224722</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="D160" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="E160" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-17042355.44224722</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="E161" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="F161" t="n">
-        <v>774665.6723</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-17042355.44224722</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D162" t="n">
-        <v>3.881</v>
-      </c>
-      <c r="E162" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F162" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-17172355.44224722</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="C163" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="D163" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="E163" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-17171355.44224722</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="E164" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="F164" t="n">
-        <v>14196.5659</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-17171355.44224722</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>3.914</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="E165" t="n">
-        <v>3.914</v>
-      </c>
-      <c r="F165" t="n">
-        <v>44270.714826285</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-17127084.72742093</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D166" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="F166" t="n">
-        <v>15190</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-17142274.72742093</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="E167" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="F167" t="n">
-        <v>37320</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-17179594.72742093</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="D168" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="E168" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="F168" t="n">
-        <v>127</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-17179467.72742093</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="C169" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="D169" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="E169" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="F169" t="n">
-        <v>17620</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="D170" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="E170" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="F170" t="n">
-        <v>8870</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="C171" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="D171" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="E171" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="F171" t="n">
-        <v>8870</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D172" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F172" t="n">
-        <v>93022.85520000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-17290110.58262093</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="D173" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.879</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-17291110.58262093</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="D174" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-17292110.58262093</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>3.877</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.877</v>
-      </c>
-      <c r="D175" t="n">
-        <v>3.877</v>
-      </c>
-      <c r="E175" t="n">
-        <v>3.877</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-17294110.58262093</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D176" t="n">
-        <v>3.876</v>
-      </c>
-      <c r="E176" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2257.8065</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-17296368.38912093</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="D177" t="n">
-        <v>3.874</v>
-      </c>
-      <c r="E177" t="n">
-        <v>3.872</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3258.0062</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-17299626.39532093</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="E178" t="n">
-        <v>3.869</v>
-      </c>
-      <c r="F178" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-17312626.39532093</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="D179" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1258.2731</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-17313884.66842093</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="D180" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3.868</v>
-      </c>
-      <c r="F180" t="n">
-        <v>30933.5178</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-17313884.66842093</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="E181" t="n">
-        <v>3.866</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-17315884.66842093</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D182" t="n">
-        <v>3.865</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F182" t="n">
-        <v>6517.2817</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-17322401.95012093</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3.859</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-17324401.95012093</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D184" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1259.0096</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-17325660.95972093</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D185" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F185" t="n">
-        <v>349555.9416</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-17675216.90132093</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="D186" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="E186" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F186" t="n">
-        <v>350852.622197925</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-17324364.279123</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F187" t="n">
-        <v>137167.2625</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6441.1642</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="F189" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="K189" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="F190" t="n">
-        <v>170173.688086605</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-17291357.85353639</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="K190" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.795</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3.795</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="F191" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-17307357.85353639</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="K191" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="D192" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="F192" t="n">
-        <v>26614.4091</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-17307357.85353639</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="K192" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.784</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.784</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3.784</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.784</v>
-      </c>
-      <c r="F193" t="n">
-        <v>45488.7814</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-17352846.63493639</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.785</v>
-      </c>
-      <c r="K193" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="F194" t="n">
-        <v>35971.7086</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-17316874.92633639</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.784</v>
-      </c>
-      <c r="K194" t="n">
-        <v>3.811</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4730187.297</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4730059.297</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4729932.297</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4735110.016100001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4686654.6215</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4686953.6215</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4689943.6215</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4685604.1135</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4711001.2144</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5143697.621099999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6159789.117399999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6069388.598799999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8203054.612999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8203054.612999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8202436.226299999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8377967.7875</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8377837.7875</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-9757237.0736</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9757107.0736</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9757107.0736</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9965438.8762</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9746029.802999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9746029.802999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9745899.802999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-9745899.802999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-9548642.144399999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8822353.003799999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8811318.032299999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8992661.884999998</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9008016.705599997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9052070.386999996</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9048092.093299996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9047964.093299996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9102964.093299996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11862813.1222</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-11862813.1222</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2794,14 +2794,10 @@
         <v>-17430450.39658421</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2831,19 +2827,11 @@
         <v>-17317098.98338421</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2872,19 +2860,11 @@
         <v>-16748128.62668421</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.747</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.716</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +3685,7 @@
         <v>-16497018.05138329</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3738,7 +3718,7 @@
         <v>-16497018.05138329</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4167,10 +4147,14 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.864</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4200,11 +4184,19 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,11 +4225,19 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4332,10 +4332,14 @@
         <v>-16818875.10498329</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.928</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4365,11 +4369,19 @@
         <v>-16992747.84688329</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +4410,19 @@
         <v>-16992747.84688329</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,10 +4451,14 @@
         <v>-16304864.18404651</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.856</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4467,8 +4491,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4500,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5685,11 +5721,17 @@
         <v>-16783297.08914651</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.842</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,11 +5760,17 @@
         <v>-16786097.08914651</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.839</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5751,11 +5799,17 @@
         <v>-16790162.39474651</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.835</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5838,17 @@
         <v>-16790862.39474651</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.833</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5877,17 @@
         <v>-16966608.76454651</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.832</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5916,17 @@
         <v>-16678770.73254651</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5955,17 @@
         <v>-17518174.60874721</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.831</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5994,17 @@
         <v>-17509354.28694721</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.827</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +6033,17 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.831</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5986,7 +6076,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6015,11 +6109,17 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6048,11 +6148,17 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6081,11 +6187,17 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +6226,17 @@
         <v>-17368047.22604721</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.841</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,11 +6265,17 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.93</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6184,7 +6308,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6217,7 +6345,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6250,7 +6382,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +6415,17 @@
         <v>-17366790.54444721</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.848</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6316,7 +6458,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6349,7 +6495,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6378,15 +6528,17 @@
         <v>-16951209.26764721</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.846</v>
       </c>
-      <c r="J181" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6415,17 +6567,15 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.85</v>
       </c>
-      <c r="J182" t="n">
-        <v>3.846</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6459,12 +6609,10 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.846</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6499,7 +6647,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6532,7 +6684,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6717,17 @@
         <v>-17048180.23144722</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6598,7 +6760,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6793,17 @@
         <v>-17044355.44224722</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.856</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6664,7 +6836,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6697,7 +6873,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6906,15 @@
         <v>-17172355.44224722</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6943,17 @@
         <v>-17171355.44224722</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6982,17 @@
         <v>-17171355.44224722</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.937</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +7021,17 @@
         <v>-17127084.72742093</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3.937</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +7060,15 @@
         <v>-17142274.72742093</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6895,7 +7101,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +7134,17 @@
         <v>-17179467.72742093</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.888</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6961,7 +7177,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6994,7 +7214,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +7251,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7060,7 +7288,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7093,7 +7325,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7126,7 +7362,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7159,7 +7399,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +7436,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7225,7 +7473,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +7506,17 @@
         <v>-17312626.39532093</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.872</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7291,7 +7549,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +7586,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7353,11 +7619,17 @@
         <v>-17315884.66842093</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.868</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7390,7 +7662,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7699,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7456,7 +7736,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +7773,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7522,7 +7810,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7551,15 +7843,13 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7590,9 +7880,11 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3.811</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7627,9 +7919,11 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3.811</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7664,9 +7958,11 @@
         <v>-17291357.85353639</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.811</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7738,9 +8034,11 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.785</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -7775,11 +8073,9 @@
         <v>-17352846.63493639</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -7829,6 +8125,6 @@
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4730315.297</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4730187.297</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4730059.297</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4729932.297</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4735110.016100001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4686654.6215</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4686953.6215</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4689943.6215</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4685604.1135</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4711001.2144</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5143697.621099999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6159789.117399999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6069388.598799999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8203054.612999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8203054.612999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8202436.226299999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8377967.7875</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8377837.7875</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-9757237.0736</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9757107.0736</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9757107.0736</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9965438.8762</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9746029.802999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9746029.802999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9745899.802999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-9745899.802999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-9548642.144399999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8822353.003799999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9008016.705599997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9052070.386999996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9048092.093299996</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9047964.093299996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9102964.093299996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-11862813.1222</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-11862813.1222</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16030692.42738329</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4147,14 +4147,10 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4184,19 +4180,11 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4225,19 +4213,11 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4332,14 +4312,10 @@
         <v>-16818875.10498329</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4369,19 +4345,11 @@
         <v>-16992747.84688329</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4410,19 +4378,11 @@
         <v>-16992747.84688329</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4451,14 +4411,10 @@
         <v>-16304864.18404651</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4491,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4530,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.856</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5721,17 +5665,11 @@
         <v>-16783297.08914651</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5760,17 +5698,11 @@
         <v>-16786097.08914651</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5799,17 +5731,11 @@
         <v>-16790162.39474651</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5838,17 +5764,11 @@
         <v>-16790862.39474651</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5877,17 +5797,11 @@
         <v>-16966608.76454651</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5916,17 +5830,11 @@
         <v>-16678770.73254651</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5955,17 +5863,11 @@
         <v>-17518174.60874721</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5994,17 +5896,11 @@
         <v>-17509354.28694721</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6033,17 +5929,11 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6109,17 +5995,11 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6148,17 +6028,11 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6187,17 +6061,11 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6226,17 +6094,11 @@
         <v>-17368047.22604721</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6265,17 +6127,11 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6341,15 +6193,15 @@
         <v>-17364790.54444721</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.849</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.849</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6381,10 +6233,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.849</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6415,15 +6269,15 @@
         <v>-17366790.54444721</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.848</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.849</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6458,11 +6312,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6345,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6528,17 +6374,11 @@
         <v>-16951209.26764721</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6567,17 +6407,11 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6444,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6477,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6510,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6717,17 +6539,11 @@
         <v>-17048180.23144722</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6576,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6793,17 +6605,11 @@
         <v>-17044355.44224722</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6836,11 +6642,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6873,11 +6675,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6708,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6943,17 +6737,11 @@
         <v>-17171355.44224722</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6982,17 +6770,11 @@
         <v>-17171355.44224722</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7021,17 +6803,11 @@
         <v>-17127084.72742093</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7064,11 +6840,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7101,11 +6873,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7134,17 +6902,11 @@
         <v>-17179467.72742093</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +6939,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +6972,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7251,11 +7005,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7288,11 +7038,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +7071,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7362,11 +7104,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7399,11 +7137,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +7170,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7473,11 +7203,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7506,17 +7232,11 @@
         <v>-17312626.39532093</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +7269,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7302,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7619,17 +7331,11 @@
         <v>-17315884.66842093</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7662,11 +7368,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +7401,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +7434,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7773,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7806,15 +7496,11 @@
         <v>-17324364.279123</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7847,11 +7533,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7880,17 +7562,11 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.811</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7919,17 +7595,11 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7958,17 +7628,11 @@
         <v>-17291357.85353639</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.811</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +7665,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8034,17 +7694,11 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +7731,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8114,17 +7764,13 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
       <c r="M223" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -583,7 +583,7 @@
         <v>-4730059.297</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4729932.297</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4735110.016100001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4686654.6215</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4686953.6215</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4689943.6215</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4685604.1135</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4711001.2144</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5140317.7481</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8811318.032299999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8992795.669899998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8992661.884999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9008016.705599997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9052070.386999996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16030692.42738329</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4015,10 +4015,14 @@
         <v>-16697628.53028329</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.89</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4051,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4091,19 @@
         <v>-16698202.66048329</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,10 +4132,14 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.897</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4147,11 +4169,19 @@
         <v>-16745278.26538329</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4210,19 @@
         <v>-16738875.10498329</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5632,10 +5670,14 @@
         <v>-16781197.08914651</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3.843</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5665,11 +5707,19 @@
         <v>-16783297.08914651</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5748,19 @@
         <v>-16786097.08914651</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.839</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5789,19 @@
         <v>-16790162.39474651</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.835</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5830,19 @@
         <v>-16790862.39474651</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5871,19 @@
         <v>-16966608.76454651</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.832</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5912,19 @@
         <v>-16678770.73254651</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5953,19 @@
         <v>-17518174.60874721</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5994,19 @@
         <v>-17509354.28694721</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.827</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6035,19 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.831</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6076,19 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6117,19 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6158,19 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6199,19 @@
         <v>-17369047.22604721</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6240,19 @@
         <v>-17368047.22604721</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,15 +6359,17 @@
         <v>-17364790.54444721</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3.849</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+        <v>3.843</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6402,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3.849</v>
+        <v>3.843</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6273,11 +6441,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3.849</v>
+        <v>3.843</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6308,11 +6476,19 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3.847</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +6517,19 @@
         <v>-17367790.54444721</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6558,19 @@
         <v>-16951209.26764721</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +6599,19 @@
         <v>-16951082.26764721</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6643,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6473,13 +6679,19 @@
         <v>-16968220.26134722</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.843</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>0.9970817069997399</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -7496,7 +7708,7 @@
         <v>-17324364.279123</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7562,7 +7774,7 @@
         <v>-17461531.541623</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7628,11 +7840,17 @@
         <v>-17291357.85353639</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.811</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7879,17 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.845</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7918,17 @@
         <v>-17307357.85353639</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.785</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7957,17 @@
         <v>-17352846.63493639</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.785</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7996,17 @@
         <v>-17316874.92633639</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.784</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest PLY.xlsx
+++ b/BackTest/2020-01-25 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>525274.4712</v>
       </c>
       <c r="G2" t="n">
-        <v>-4730315.297</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>7673.2645</v>
       </c>
       <c r="G3" t="n">
-        <v>-4730315.297</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50354.0774</v>
       </c>
       <c r="G4" t="n">
-        <v>-4730315.297</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>-4730187.297</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>-4730059.297</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>127</v>
       </c>
       <c r="G7" t="n">
-        <v>-4729932.297</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5177.7191</v>
       </c>
       <c r="G8" t="n">
-        <v>-4735110.016100001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>48455.3946</v>
       </c>
       <c r="G9" t="n">
-        <v>-4686654.6215</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>299</v>
       </c>
       <c r="G10" t="n">
-        <v>-4686953.6215</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2990</v>
       </c>
       <c r="G11" t="n">
-        <v>-4689943.6215</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4339.508</v>
       </c>
       <c r="G12" t="n">
-        <v>-4685604.1135</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>25397.1009</v>
       </c>
       <c r="G13" t="n">
-        <v>-4711001.2144</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>429316.5337</v>
       </c>
       <c r="G14" t="n">
-        <v>-5140317.7481</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>96825.6281</v>
       </c>
       <c r="G15" t="n">
-        <v>-5140317.7481</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>66268.7818</v>
       </c>
       <c r="G16" t="n">
-        <v>-5140317.7481</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4393.7024</v>
       </c>
       <c r="G17" t="n">
-        <v>-5140317.7481</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3379.873</v>
       </c>
       <c r="G18" t="n">
-        <v>-5143697.621099999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1016091.4963</v>
       </c>
       <c r="G19" t="n">
-        <v>-6159789.117399999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>90400.5186</v>
       </c>
       <c r="G20" t="n">
-        <v>-6069388.598799999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2133666.0142</v>
       </c>
       <c r="G21" t="n">
-        <v>-8203054.612999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>27669.1183</v>
       </c>
       <c r="G22" t="n">
-        <v>-8203054.612999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>618.3867</v>
       </c>
       <c r="G23" t="n">
-        <v>-8202436.226299999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>175531.5612</v>
       </c>
       <c r="G24" t="n">
-        <v>-8377967.7875</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>130</v>
       </c>
       <c r="G25" t="n">
-        <v>-8377837.7875</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1379399.2861</v>
       </c>
       <c r="G26" t="n">
-        <v>-9757237.0736</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>130</v>
       </c>
       <c r="G27" t="n">
-        <v>-9757107.0736</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>64657.1726</v>
       </c>
       <c r="G28" t="n">
-        <v>-9757107.0736</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>208331.8026</v>
       </c>
       <c r="G29" t="n">
-        <v>-9965438.8762</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>219409.0732</v>
       </c>
       <c r="G30" t="n">
-        <v>-9746029.802999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>63173.4375</v>
       </c>
       <c r="G31" t="n">
-        <v>-9746029.802999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>130</v>
       </c>
       <c r="G32" t="n">
-        <v>-9745899.802999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>69122.837</v>
       </c>
       <c r="G33" t="n">
-        <v>-9745899.802999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>197257.6586</v>
       </c>
       <c r="G34" t="n">
-        <v>-9548642.144399999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>726289.1406</v>
       </c>
       <c r="G35" t="n">
-        <v>-8822353.003799999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>47601.2808</v>
       </c>
       <c r="G36" t="n">
-        <v>-8822353.003799999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>11034.9715</v>
       </c>
       <c r="G37" t="n">
-        <v>-8811318.032299999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>181477.6376</v>
       </c>
       <c r="G38" t="n">
-        <v>-8992795.669899998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>133.7849</v>
       </c>
       <c r="G39" t="n">
-        <v>-8992661.884999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>15354.8206</v>
       </c>
       <c r="G40" t="n">
-        <v>-9008016.705599997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>44053.6814</v>
       </c>
       <c r="G41" t="n">
-        <v>-9052070.386999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3978.2937</v>
       </c>
       <c r="G42" t="n">
-        <v>-9048092.093299996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>128</v>
       </c>
       <c r="G43" t="n">
-        <v>-9047964.093299996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>55000</v>
       </c>
       <c r="G44" t="n">
-        <v>-9102964.093299996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2759849.0289</v>
       </c>
       <c r="G45" t="n">
-        <v>-11862813.1222</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2119.4896</v>
       </c>
       <c r="G46" t="n">
-        <v>-11862813.1222</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>185856.3591</v>
       </c>
       <c r="G47" t="n">
-        <v>-11862813.1222</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>204652.5633</v>
       </c>
       <c r="G48" t="n">
-        <v>-12067465.6855</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>192170.3366</v>
       </c>
       <c r="G49" t="n">
-        <v>-12259636.0221</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>132</v>
       </c>
       <c r="G50" t="n">
-        <v>-12259504.0221</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>56658.4093</v>
       </c>
       <c r="G51" t="n">
-        <v>-12316162.4314</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>70743.24709999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-12245419.1843</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>632.6394</v>
       </c>
       <c r="G53" t="n">
-        <v>-12245419.1843</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2995.5754</v>
       </c>
       <c r="G54" t="n">
-        <v>-12248414.7597</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>389355.1985</v>
       </c>
       <c r="G55" t="n">
-        <v>-12637769.9582</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3635751.9947</v>
       </c>
       <c r="G56" t="n">
-        <v>-16273521.9529</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>35762.671594508</v>
       </c>
       <c r="G57" t="n">
-        <v>-16237759.28130549</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>352697.8318</v>
       </c>
       <c r="G58" t="n">
-        <v>-16590457.11310549</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>55664.5025</v>
       </c>
       <c r="G59" t="n">
-        <v>-16534792.61060549</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1138.4143</v>
       </c>
       <c r="G60" t="n">
-        <v>-16534792.61060549</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>22333.3895</v>
       </c>
       <c r="G61" t="n">
-        <v>-16557126.00010549</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>38130.4066</v>
       </c>
       <c r="G62" t="n">
-        <v>-16557126.00010549</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>74759.87119999999</v>
       </c>
       <c r="G63" t="n">
-        <v>-16557126.00010549</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>185856.3591</v>
       </c>
       <c r="G64" t="n">
-        <v>-16557126.00010549</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>12393.8724</v>
       </c>
       <c r="G65" t="n">
-        <v>-16544732.12770549</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>39954.9044</v>
       </c>
       <c r="G66" t="n">
-        <v>-16584687.03210549</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>266428.0191</v>
       </c>
       <c r="G67" t="n">
-        <v>-16584687.03210549</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>13454.6113</v>
       </c>
       <c r="G68" t="n">
-        <v>-16584687.03210549</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>13343.617021276</v>
       </c>
       <c r="G69" t="n">
-        <v>-16571343.41508421</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>642827.7775</v>
       </c>
       <c r="G70" t="n">
-        <v>-17214171.19258421</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>130739.6936</v>
       </c>
       <c r="G71" t="n">
-        <v>-17344910.88618421</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>85539.5104</v>
       </c>
       <c r="G72" t="n">
-        <v>-17430450.39658421</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>56012.404</v>
       </c>
       <c r="G73" t="n">
-        <v>-17430450.39658421</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,19 @@
         <v>113351.4132</v>
       </c>
       <c r="G74" t="n">
-        <v>-17317098.98338421</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>3.716</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.716</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2637,23 @@
         <v>568970.3567</v>
       </c>
       <c r="G75" t="n">
-        <v>-16748128.62668421</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>3.747</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2675,23 @@
         <v>2216.6494</v>
       </c>
       <c r="G76" t="n">
-        <v>-16750345.27608421</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>3.787</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.716</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2713,19 @@
         <v>266479.315213747</v>
       </c>
       <c r="G77" t="n">
-        <v>-16483865.96087047</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>3.757</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.757</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2747,21 @@
         <v>134</v>
       </c>
       <c r="G78" t="n">
-        <v>-16483999.96087047</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2783,21 @@
         <v>131</v>
       </c>
       <c r="G79" t="n">
-        <v>-16483868.96087047</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>3.757</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2819,15 @@
         <v>329.1205</v>
       </c>
       <c r="G80" t="n">
-        <v>-16484198.08137047</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2849,15 @@
         <v>131</v>
       </c>
       <c r="G81" t="n">
-        <v>-16484067.08137047</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2879,15 @@
         <v>312429.7723</v>
       </c>
       <c r="G82" t="n">
-        <v>-16171637.30907047</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2909,15 @@
         <v>2669.827287179</v>
       </c>
       <c r="G83" t="n">
-        <v>-16168967.48178329</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2939,15 @@
         <v>12393.8724</v>
       </c>
       <c r="G84" t="n">
-        <v>-16181361.35418329</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2969,15 @@
         <v>129</v>
       </c>
       <c r="G85" t="n">
-        <v>-16181232.35418329</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2999,15 @@
         <v>26520.8841</v>
       </c>
       <c r="G86" t="n">
-        <v>-16207753.23828329</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3029,15 @@
         <v>41335.2163</v>
       </c>
       <c r="G87" t="n">
-        <v>-16249088.45458329</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3059,15 @@
         <v>44235.0154</v>
       </c>
       <c r="G88" t="n">
-        <v>-16204853.43918329</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3089,15 @@
         <v>62700.263</v>
       </c>
       <c r="G89" t="n">
-        <v>-16142153.17618329</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,15 @@
         <v>111000</v>
       </c>
       <c r="G90" t="n">
-        <v>-16142153.17618329</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3149,15 @@
         <v>9730</v>
       </c>
       <c r="G91" t="n">
-        <v>-16151883.17618329</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3179,15 @@
         <v>20186.7485</v>
       </c>
       <c r="G92" t="n">
-        <v>-16131696.42768329</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3209,15 @@
         <v>101004.0003</v>
       </c>
       <c r="G93" t="n">
-        <v>-16030692.42738329</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3239,15 @@
         <v>100000</v>
       </c>
       <c r="G94" t="n">
-        <v>-16030692.42738329</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3269,15 @@
         <v>50000</v>
       </c>
       <c r="G95" t="n">
-        <v>-16030692.42738329</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3299,15 @@
         <v>34230.2967</v>
       </c>
       <c r="G96" t="n">
-        <v>-15996462.13068329</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3329,15 @@
         <v>33934.9614</v>
       </c>
       <c r="G97" t="n">
-        <v>-15962527.16928329</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3359,15 @@
         <v>397523.6848</v>
       </c>
       <c r="G98" t="n">
-        <v>-15962527.16928329</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3389,15 @@
         <v>192717.617</v>
       </c>
       <c r="G99" t="n">
-        <v>-16155244.78628329</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3419,15 @@
         <v>341773.2651</v>
       </c>
       <c r="G100" t="n">
-        <v>-16497018.05138329</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3449,15 @@
         <v>30527.86</v>
       </c>
       <c r="G101" t="n">
-        <v>-16497018.05138329</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3479,15 @@
         <v>48010.1384</v>
       </c>
       <c r="G102" t="n">
-        <v>-16545028.18978329</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3509,15 @@
         <v>160</v>
       </c>
       <c r="G103" t="n">
-        <v>-16544868.18978329</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3539,15 @@
         <v>500</v>
       </c>
       <c r="G104" t="n">
-        <v>-16545368.18978329</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3569,15 @@
         <v>116196.3307</v>
       </c>
       <c r="G105" t="n">
-        <v>-16661564.52048329</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3599,15 @@
         <v>15666.3554</v>
       </c>
       <c r="G106" t="n">
-        <v>-16677230.87588329</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3629,15 @@
         <v>260.8356</v>
       </c>
       <c r="G107" t="n">
-        <v>-16677491.71148329</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3659,15 @@
         <v>124653.8953</v>
       </c>
       <c r="G108" t="n">
-        <v>-16802145.60678329</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3689,15 @@
         <v>104262.0765</v>
       </c>
       <c r="G109" t="n">
-        <v>-16697883.53028329</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,22 +3719,15 @@
         <v>255</v>
       </c>
       <c r="G110" t="n">
-        <v>-16697628.53028329</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4049,24 +3749,15 @@
         <v>574.1301999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-16698202.66048329</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4088,26 +3779,15 @@
         <v>666.8026</v>
       </c>
       <c r="G112" t="n">
-        <v>-16698202.66048329</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,22 +3809,15 @@
         <v>47075.6049</v>
       </c>
       <c r="G113" t="n">
-        <v>-16745278.26538329</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4166,26 +3839,15 @@
         <v>87000</v>
       </c>
       <c r="G114" t="n">
-        <v>-16745278.26538329</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4207,26 +3869,15 @@
         <v>6403.1604</v>
       </c>
       <c r="G115" t="n">
-        <v>-16738875.10498329</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4248,18 +3899,15 @@
         <v>984.5817</v>
       </c>
       <c r="G116" t="n">
-        <v>-16738875.10498329</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4281,18 +3929,15 @@
         <v>18190</v>
       </c>
       <c r="G117" t="n">
-        <v>-16738875.10498329</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4314,18 +3959,15 @@
         <v>80000</v>
       </c>
       <c r="G118" t="n">
-        <v>-16818875.10498329</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4347,18 +3989,15 @@
         <v>1440.2391</v>
       </c>
       <c r="G119" t="n">
-        <v>-16818875.10498329</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4380,18 +4019,15 @@
         <v>173872.7419</v>
       </c>
       <c r="G120" t="n">
-        <v>-16992747.84688329</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4413,18 +4049,15 @@
         <v>45536.3313</v>
       </c>
       <c r="G121" t="n">
-        <v>-16992747.84688329</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4446,18 +4079,15 @@
         <v>687883.662836781</v>
       </c>
       <c r="G122" t="n">
-        <v>-16304864.18404651</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4479,18 +4109,15 @@
         <v>71006.5897</v>
       </c>
       <c r="G123" t="n">
-        <v>-16375870.77374651</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4512,18 +4139,15 @@
         <v>32810</v>
       </c>
       <c r="G124" t="n">
-        <v>-16408680.77374651</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4545,18 +4169,15 @@
         <v>47910.1167</v>
       </c>
       <c r="G125" t="n">
-        <v>-16408680.77374651</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4578,18 +4199,15 @@
         <v>5890.5665</v>
       </c>
       <c r="G126" t="n">
-        <v>-16408680.77374651</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4611,18 +4229,15 @@
         <v>51519.25</v>
       </c>
       <c r="G127" t="n">
-        <v>-16408680.77374651</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4644,18 +4259,15 @@
         <v>72120</v>
       </c>
       <c r="G128" t="n">
-        <v>-16480800.77374651</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4677,18 +4289,15 @@
         <v>26570.777</v>
       </c>
       <c r="G129" t="n">
-        <v>-16507371.55074651</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4710,18 +4319,15 @@
         <v>10875.0478</v>
       </c>
       <c r="G130" t="n">
-        <v>-16496496.50294651</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4743,18 +4349,15 @@
         <v>87792.6856</v>
       </c>
       <c r="G131" t="n">
-        <v>-16584289.18854651</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4776,18 +4379,15 @@
         <v>902.0141</v>
       </c>
       <c r="G132" t="n">
-        <v>-16585191.20264651</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4809,18 +4409,15 @@
         <v>77076.7136</v>
       </c>
       <c r="G133" t="n">
-        <v>-16508114.48904651</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4842,18 +4439,15 @@
         <v>727.9865</v>
       </c>
       <c r="G134" t="n">
-        <v>-16508114.48904651</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4875,18 +4469,15 @@
         <v>100000</v>
       </c>
       <c r="G135" t="n">
-        <v>-16608114.48904651</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4908,18 +4499,15 @@
         <v>104444.1974</v>
       </c>
       <c r="G136" t="n">
-        <v>-16712558.68644651</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4941,18 +4529,15 @@
         <v>2588.6616</v>
       </c>
       <c r="G137" t="n">
-        <v>-16715147.34804651</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4974,18 +4559,15 @@
         <v>406724.5493</v>
       </c>
       <c r="G138" t="n">
-        <v>-16715147.34804651</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5007,18 +4589,15 @@
         <v>279974.5942</v>
       </c>
       <c r="G139" t="n">
-        <v>-16715147.34804651</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5040,18 +4619,15 @@
         <v>111043.9578</v>
       </c>
       <c r="G140" t="n">
-        <v>-16604103.39024651</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5073,18 +4649,15 @@
         <v>301484.7672</v>
       </c>
       <c r="G141" t="n">
-        <v>-16604103.39024651</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5106,18 +4679,15 @@
         <v>141900.0213</v>
       </c>
       <c r="G142" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5139,18 +4709,15 @@
         <v>143447.3842</v>
       </c>
       <c r="G143" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5172,18 +4739,15 @@
         <v>200000</v>
       </c>
       <c r="G144" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5205,18 +4769,15 @@
         <v>43448.7216</v>
       </c>
       <c r="G145" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5238,18 +4799,15 @@
         <v>6551.2784</v>
       </c>
       <c r="G146" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5271,18 +4829,15 @@
         <v>91676.83779999999</v>
       </c>
       <c r="G147" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5304,18 +4859,15 @@
         <v>8323.162200000001</v>
       </c>
       <c r="G148" t="n">
-        <v>-16746003.41154651</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5337,18 +4889,15 @@
         <v>60460.1498</v>
       </c>
       <c r="G149" t="n">
-        <v>-16685543.26174651</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5370,18 +4919,15 @@
         <v>13620</v>
       </c>
       <c r="G150" t="n">
-        <v>-16699163.26174651</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5403,18 +4949,15 @@
         <v>74094.1492</v>
       </c>
       <c r="G151" t="n">
-        <v>-16773257.41094651</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5436,18 +4979,15 @@
         <v>2889.6782</v>
       </c>
       <c r="G152" t="n">
-        <v>-16776147.08914651</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5469,18 +5009,15 @@
         <v>850</v>
       </c>
       <c r="G153" t="n">
-        <v>-16776997.08914651</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5502,18 +5039,15 @@
         <v>300</v>
       </c>
       <c r="G154" t="n">
-        <v>-16776997.08914651</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5535,18 +5069,15 @@
         <v>700</v>
       </c>
       <c r="G155" t="n">
-        <v>-16777697.08914651</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5568,18 +5099,15 @@
         <v>1400</v>
       </c>
       <c r="G156" t="n">
-        <v>-16779097.08914651</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5601,18 +5129,15 @@
         <v>700</v>
       </c>
       <c r="G157" t="n">
-        <v>-16779797.08914651</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5634,18 +5159,15 @@
         <v>700</v>
       </c>
       <c r="G158" t="n">
-        <v>-16780497.08914651</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5667,22 +5189,15 @@
         <v>700</v>
       </c>
       <c r="G159" t="n">
-        <v>-16781197.08914651</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5704,26 +5219,15 @@
         <v>2100</v>
       </c>
       <c r="G160" t="n">
-        <v>-16783297.08914651</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.842</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5745,26 +5249,15 @@
         <v>2800</v>
       </c>
       <c r="G161" t="n">
-        <v>-16786097.08914651</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.839</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5786,26 +5279,15 @@
         <v>4065.3056</v>
       </c>
       <c r="G162" t="n">
-        <v>-16790162.39474651</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.835</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5827,26 +5309,15 @@
         <v>700</v>
       </c>
       <c r="G163" t="n">
-        <v>-16790862.39474651</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5868,26 +5339,15 @@
         <v>175746.3698</v>
       </c>
       <c r="G164" t="n">
-        <v>-16966608.76454651</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.832</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5909,26 +5369,15 @@
         <v>287838.032</v>
       </c>
       <c r="G165" t="n">
-        <v>-16678770.73254651</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5950,26 +5399,15 @@
         <v>839403.876200702</v>
       </c>
       <c r="G166" t="n">
-        <v>-17518174.60874721</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.831</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5991,26 +5429,15 @@
         <v>8820.3218</v>
       </c>
       <c r="G167" t="n">
-        <v>-17509354.28694721</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.827</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6032,26 +5459,15 @@
         <v>140307.0609</v>
       </c>
       <c r="G168" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.831</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6073,26 +5489,15 @@
         <v>103750.8182</v>
       </c>
       <c r="G169" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6114,26 +5519,15 @@
         <v>100734.1734</v>
       </c>
       <c r="G170" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6155,26 +5549,15 @@
         <v>553257.2394</v>
       </c>
       <c r="G171" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6196,26 +5579,15 @@
         <v>85815.865399298</v>
       </c>
       <c r="G172" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6237,26 +5609,15 @@
         <v>1000</v>
       </c>
       <c r="G173" t="n">
-        <v>-17368047.22604721</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.841</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6278,24 +5639,15 @@
         <v>1000</v>
       </c>
       <c r="G174" t="n">
-        <v>-17369047.22604721</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6317,24 +5669,15 @@
         <v>1000</v>
       </c>
       <c r="G175" t="n">
-        <v>-17370047.22604721</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6356,24 +5699,15 @@
         <v>5256.6816</v>
       </c>
       <c r="G176" t="n">
-        <v>-17364790.54444721</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6395,24 +5729,15 @@
         <v>1000</v>
       </c>
       <c r="G177" t="n">
-        <v>-17365790.54444721</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6434,24 +5759,15 @@
         <v>1000</v>
       </c>
       <c r="G178" t="n">
-        <v>-17366790.54444721</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6473,26 +5789,15 @@
         <v>1000</v>
       </c>
       <c r="G179" t="n">
-        <v>-17367790.54444721</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.847</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6514,26 +5819,15 @@
         <v>5015.7264</v>
       </c>
       <c r="G180" t="n">
-        <v>-17367790.54444721</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6555,26 +5849,15 @@
         <v>416581.2768</v>
       </c>
       <c r="G181" t="n">
-        <v>-16951209.26764721</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6596,26 +5879,15 @@
         <v>127</v>
       </c>
       <c r="G182" t="n">
-        <v>-16951082.26764721</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6637,24 +5909,15 @@
         <v>127</v>
       </c>
       <c r="G183" t="n">
-        <v>-16951082.26764721</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6676,24 +5939,15 @@
         <v>17137.9937</v>
       </c>
       <c r="G184" t="n">
-        <v>-16968220.26134722</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.843</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>0.9970817069997399</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6715,18 +5969,15 @@
         <v>80306.36810000001</v>
       </c>
       <c r="G185" t="n">
-        <v>-17048526.62944721</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6748,18 +5999,15 @@
         <v>346.398</v>
       </c>
       <c r="G186" t="n">
-        <v>-17048180.23144722</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6781,18 +6029,15 @@
         <v>15271.3669</v>
       </c>
       <c r="G187" t="n">
-        <v>-17048180.23144722</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6814,18 +6059,15 @@
         <v>3824.7892</v>
       </c>
       <c r="G188" t="n">
-        <v>-17044355.44224722</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6847,18 +6089,15 @@
         <v>2000</v>
       </c>
       <c r="G189" t="n">
-        <v>-17042355.44224722</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6880,18 +6119,15 @@
         <v>774665.6723</v>
       </c>
       <c r="G190" t="n">
-        <v>-17042355.44224722</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6913,18 +6149,15 @@
         <v>130000</v>
       </c>
       <c r="G191" t="n">
-        <v>-17172355.44224722</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6946,18 +6179,15 @@
         <v>1000</v>
       </c>
       <c r="G192" t="n">
-        <v>-17171355.44224722</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6979,18 +6209,15 @@
         <v>14196.5659</v>
       </c>
       <c r="G193" t="n">
-        <v>-17171355.44224722</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7012,18 +6239,15 @@
         <v>44270.714826285</v>
       </c>
       <c r="G194" t="n">
-        <v>-17127084.72742093</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7045,18 +6269,15 @@
         <v>15190</v>
       </c>
       <c r="G195" t="n">
-        <v>-17142274.72742093</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7078,18 +6299,15 @@
         <v>37320</v>
       </c>
       <c r="G196" t="n">
-        <v>-17179594.72742093</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7111,18 +6329,15 @@
         <v>127</v>
       </c>
       <c r="G197" t="n">
-        <v>-17179467.72742093</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7144,18 +6359,15 @@
         <v>17620</v>
       </c>
       <c r="G198" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7177,18 +6389,15 @@
         <v>8870</v>
       </c>
       <c r="G199" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7210,18 +6419,15 @@
         <v>8870</v>
       </c>
       <c r="G200" t="n">
-        <v>-17197087.72742093</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7243,18 +6449,15 @@
         <v>93022.85520000001</v>
       </c>
       <c r="G201" t="n">
-        <v>-17290110.58262093</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7276,18 +6479,15 @@
         <v>1000</v>
       </c>
       <c r="G202" t="n">
-        <v>-17291110.58262093</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7309,18 +6509,15 @@
         <v>1000</v>
       </c>
       <c r="G203" t="n">
-        <v>-17292110.58262093</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7342,18 +6539,15 @@
         <v>2000</v>
       </c>
       <c r="G204" t="n">
-        <v>-17294110.58262093</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7375,18 +6569,15 @@
         <v>2257.8065</v>
       </c>
       <c r="G205" t="n">
-        <v>-17296368.38912093</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7408,18 +6599,15 @@
         <v>3258.0062</v>
       </c>
       <c r="G206" t="n">
-        <v>-17299626.39532093</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7441,18 +6629,15 @@
         <v>13000</v>
       </c>
       <c r="G207" t="n">
-        <v>-17312626.39532093</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7474,18 +6659,15 @@
         <v>1258.2731</v>
       </c>
       <c r="G208" t="n">
-        <v>-17313884.66842093</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7507,18 +6689,15 @@
         <v>30933.5178</v>
       </c>
       <c r="G209" t="n">
-        <v>-17313884.66842093</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7540,18 +6719,15 @@
         <v>2000</v>
       </c>
       <c r="G210" t="n">
-        <v>-17315884.66842093</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7573,18 +6749,15 @@
         <v>6517.2817</v>
       </c>
       <c r="G211" t="n">
-        <v>-17322401.95012093</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7606,18 +6779,15 @@
         <v>2000</v>
       </c>
       <c r="G212" t="n">
-        <v>-17324401.95012093</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7639,18 +6809,15 @@
         <v>1259.0096</v>
       </c>
       <c r="G213" t="n">
-        <v>-17325660.95972093</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7672,18 +6839,15 @@
         <v>349555.9416</v>
       </c>
       <c r="G214" t="n">
-        <v>-17675216.90132093</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7705,18 +6869,15 @@
         <v>350852.622197925</v>
       </c>
       <c r="G215" t="n">
-        <v>-17324364.279123</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7738,18 +6899,15 @@
         <v>137167.2625</v>
       </c>
       <c r="G216" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7771,18 +6929,15 @@
         <v>6441.1642</v>
       </c>
       <c r="G217" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7804,18 +6959,15 @@
         <v>110000</v>
       </c>
       <c r="G218" t="n">
-        <v>-17461531.541623</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7837,24 +6989,15 @@
         <v>170173.688086605</v>
       </c>
       <c r="G219" t="n">
-        <v>-17291357.85353639</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7876,24 +7019,15 @@
         <v>16000</v>
       </c>
       <c r="G220" t="n">
-        <v>-17307357.85353639</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7915,24 +7049,15 @@
         <v>26614.4091</v>
       </c>
       <c r="G221" t="n">
-        <v>-17307357.85353639</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7954,24 +7079,15 @@
         <v>45488.7814</v>
       </c>
       <c r="G222" t="n">
-        <v>-17352846.63493639</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7993,24 +7109,15 @@
         <v>35971.7086</v>
       </c>
       <c r="G223" t="n">
-        <v>-17316874.92633639</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
